--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26704"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC41251C-5706-4C0C-A378-3EA9F041DD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B450B183-F7AE-4F24-BB7D-19D6CBD40999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="209">
   <si>
     <t>アカウント登録画面のチェックテスト</t>
   </si>
@@ -131,6 +131,19 @@
     <t>①-3</t>
   </si>
   <si>
+    <t>名前(姓)の入力フォームに指定された文字を指定文字数以上入力しEnterボタン押下後バリデーションエラーメッセージが出ることを確認する</t>
+  </si>
+  <si>
+    <t>入力する文字は漢字及びひらがなのみ
+入力する文字数は11文字以上</t>
+  </si>
+  <si>
+    <t>あいうえおかきくけこさ</t>
+  </si>
+  <si>
+    <t>①-4</t>
+  </si>
+  <si>
     <t xml:space="preserve">名前(姓)の入力フォームに何も入力せず、入力フォーム下部に赤字のエラーメッセージ「名前(姓)が未入力です。」を表示させる
 </t>
   </si>
@@ -169,6 +182,12 @@
     <t>②-3</t>
   </si>
   <si>
+    <t>名前(名)の入力フォームに指定された文字を指定文字数以上入力しEnterボタン押下後バリデーションエラーメッセージが出ることを確認する</t>
+  </si>
+  <si>
+    <t>②-4</t>
+  </si>
+  <si>
     <t>名前(名)の入力フォームに何も入力せず、入力フォーム下部に赤字のエラーメッセージ「名前(名)が未入力です。」を表示させる</t>
   </si>
   <si>
@@ -200,6 +219,19 @@
   </si>
   <si>
     <t>③-3</t>
+  </si>
+  <si>
+    <t>カナ(姓)の入力フォームに指定された文字を指定文字数以上入力しEnterボタン押下後バリデーションエラーメッセージが出ないことを確認する</t>
+  </si>
+  <si>
+    <t>入力する文字はカタカナのみ
+入力する文字数は11文字以上</t>
+  </si>
+  <si>
+    <t>アイウエオカキクケコサ</t>
+  </si>
+  <si>
+    <t>③-4</t>
   </si>
   <si>
     <t xml:space="preserve">カナ(姓)の入力フォームに何も入力せず、入力フォーム下部に赤字のエラーメッセージ「カナ(姓)が未入力です。」を表示させる
@@ -234,6 +266,12 @@
   </si>
   <si>
     <t>④-3</t>
+  </si>
+  <si>
+    <t>カナ(名)の入力フォームに指定された文字を指定文字数以上入力しEnterボタン押下後バリデーションエラーメッセージが出ないことを確認する</t>
+  </si>
+  <si>
+    <t>④-4</t>
   </si>
   <si>
     <t xml:space="preserve">カナ(名)の入力フォームに何も入れず、入力フォーム下部に赤字のエラーメッセージ「カナ(名)が未入力です。」を表示させる
@@ -1022,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1230,6 +1268,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1596,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X76"/>
+  <dimension ref="A2:X84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="Q82" sqref="Q82"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35:Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1882,106 +1923,106 @@
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
     </row>
-    <row r="11" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="4"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="4"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="8"/>
       <c r="R11" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="14" t="s">
+      <c r="U11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V11" s="43"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-    </row>
-    <row r="12" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
+      <c r="V11" s="4"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="8"/>
+    </row>
+    <row r="12" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="42"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="9"/>
       <c r="O12" s="6"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="9"/>
     </row>
     <row r="13" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="42" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="68"/>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="14" t="s">
+      <c r="L13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
@@ -1992,24 +2033,24 @@
       <c r="W13" s="14"/>
       <c r="X13" s="14"/>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
+      <c r="A14" s="42"/>
       <c r="B14" s="68"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="4"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="16"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -2020,23 +2061,23 @@
     </row>
     <row r="15" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="68"/>
+      <c r="C15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="43" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -2045,13 +2086,13 @@
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="16"/>
       <c r="R15" s="14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
@@ -2062,62 +2103,66 @@
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" ht="29.25" customHeight="1">
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="68"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="16"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
     </row>
     <row r="17" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A17" s="44" t="s">
-        <v>44</v>
+      <c r="A17" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B17" s="68"/>
-      <c r="C17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="4"/>
+      <c r="E17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="14" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
@@ -2128,21 +2173,21 @@
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
     </row>
-    <row r="18" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A18" s="44"/>
+    <row r="18" spans="1:24" s="3" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A18" s="15"/>
       <c r="B18" s="68"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
       <c r="O18" s="6"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -2150,44 +2195,44 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
     </row>
     <row r="19" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A19" s="46" t="s">
-        <v>47</v>
+      <c r="A19" s="44" t="s">
+        <v>48</v>
       </c>
       <c r="B19" s="68"/>
       <c r="C19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="16"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="14" t="s">
+      <c r="K19" s="8"/>
+      <c r="L19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="16"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
       <c r="R19" s="14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
@@ -2198,24 +2243,24 @@
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
     </row>
-    <row r="20" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="46"/>
+    <row r="20" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
+      <c r="A20" s="44"/>
       <c r="B20" s="68"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="16"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
@@ -2225,39 +2270,35 @@
       <c r="X20" s="11"/>
     </row>
     <row r="21" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A21" s="46" t="s">
-        <v>52</v>
+      <c r="A21" s="44" t="s">
+        <v>50</v>
       </c>
       <c r="B21" s="68"/>
-      <c r="C21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="16"/>
+      <c r="E21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="14" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
-      <c r="O21" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="O21" s="4"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="14" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
@@ -2268,62 +2309,66 @@
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A22" s="46"/>
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
+      <c r="A22" s="44"/>
       <c r="B22" s="68"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="16"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
-      <c r="O22" s="7"/>
+      <c r="O22" s="6"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
     </row>
     <row r="23" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="48" t="s">
-        <v>55</v>
+      <c r="A23" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="B23" s="68"/>
       <c r="C23" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="4"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="O23" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="16"/>
       <c r="R23" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
@@ -2334,24 +2379,24 @@
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
     </row>
-    <row r="24" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A24" s="48"/>
+    <row r="24" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="46"/>
       <c r="B24" s="68"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="16"/>
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
@@ -2361,39 +2406,39 @@
       <c r="X24" s="11"/>
     </row>
     <row r="25" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="46" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="68"/>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>60</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="I25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="16"/>
       <c r="L25" s="14" t="s">
         <v>23</v>
       </c>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="16"/>
+      <c r="O25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
       <c r="R25" s="14" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
@@ -2404,136 +2449,136 @@
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
     </row>
-    <row r="26" spans="1:24" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A26" s="47"/>
+    <row r="26" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A26" s="46"/>
       <c r="B26" s="68"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="8"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
       <c r="U26" s="14"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
     </row>
     <row r="27" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A27" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="68"/>
+      <c r="A27" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="71"/>
       <c r="C27" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="43" t="s">
-        <v>29</v>
+      <c r="I27" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="J27" s="14"/>
-      <c r="K27" s="16"/>
+      <c r="K27" s="14"/>
       <c r="L27" s="14" t="s">
         <v>23</v>
       </c>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
-      <c r="O27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="O27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
       <c r="R27" s="14" t="s">
         <v>31</v>
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
-      <c r="U27" s="14" t="s">
+      <c r="U27" s="43" t="s">
         <v>26</v>
       </c>
       <c r="V27" s="43"/>
       <c r="W27" s="14"/>
       <c r="X27" s="14"/>
     </row>
-    <row r="28" spans="1:24" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="68"/>
+    <row r="28" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="7"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
-      <c r="I28" s="43"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="16"/>
+      <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
     </row>
     <row r="29" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="71"/>
+      <c r="C29" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
       <c r="L29" s="14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
       <c r="R29" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
-      <c r="U29" s="14" t="s">
+      <c r="U29" s="43" t="s">
         <v>26</v>
       </c>
       <c r="V29" s="43"/>
@@ -2541,135 +2586,133 @@
       <c r="X29" s="14"/>
     </row>
     <row r="30" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
+      <c r="U30" s="43"/>
       <c r="V30" s="8"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
     </row>
     <row r="31" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="68"/>
+      <c r="C31" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="11" t="s">
+      <c r="D31" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
       <c r="U31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="V31" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="W31" s="5"/>
-      <c r="X31" s="8"/>
-    </row>
-    <row r="32" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A32" s="10"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+    </row>
+    <row r="32" spans="1:24" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A32" s="47"/>
       <c r="B32" s="68"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="16"/>
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="9"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
     </row>
     <row r="33" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A33" s="10" t="s">
-        <v>75</v>
+      <c r="A33" s="47" t="s">
+        <v>73</v>
       </c>
       <c r="B33" s="68"/>
-      <c r="C33" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="14" t="s">
-        <v>77</v>
+      <c r="E33" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="43" t="s">
+        <v>29</v>
       </c>
       <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
+      <c r="K33" s="16"/>
       <c r="L33" s="14" t="s">
         <v>23</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
-      <c r="O33" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
+      <c r="O33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
       <c r="R33" s="14" t="s">
         <v>31</v>
       </c>
@@ -2678,191 +2721,191 @@
       <c r="U33" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="8"/>
-    </row>
-    <row r="34" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A34" s="10"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A34" s="47"/>
       <c r="B34" s="68"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="43"/>
       <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
+      <c r="K34" s="16"/>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="23"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
     </row>
     <row r="35" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A35" s="10" t="s">
-        <v>79</v>
+      <c r="A35" s="47" t="s">
+        <v>76</v>
       </c>
       <c r="B35" s="68"/>
-      <c r="C35" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="E35" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
       <c r="L35" s="14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
+      <c r="O35" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
       <c r="R35" s="14" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
-      <c r="U35" s="14" t="s">
+      <c r="U35" s="43" t="s">
         <v>26</v>
       </c>
       <c r="V35" s="43"/>
       <c r="W35" s="14"/>
       <c r="X35" s="14"/>
     </row>
-    <row r="36" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A36" s="10"/>
+    <row r="36" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="47"/>
       <c r="B36" s="68"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
       <c r="N36" s="14"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
     </row>
     <row r="37" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A37" s="49" t="s">
-        <v>82</v>
+      <c r="A37" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="B37" s="68"/>
       <c r="C37" s="11" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
       <c r="L37" s="14" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M37" s="14"/>
       <c r="N37" s="14"/>
-      <c r="O37" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
       <c r="R37" s="14" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
       <c r="U37" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="8"/>
-    </row>
-    <row r="38" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A38" s="49"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
+      <c r="A38" s="24"/>
       <c r="B38" s="68"/>
-      <c r="C38" s="12"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="9"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
     </row>
     <row r="39" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A39" s="49" t="s">
-        <v>87</v>
+      <c r="A39" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="B39" s="68"/>
       <c r="C39" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="6"/>
       <c r="I39" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
@@ -2872,26 +2915,26 @@
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
       <c r="O39" s="17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P39" s="18"/>
       <c r="Q39" s="18"/>
       <c r="R39" s="14" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
       <c r="U39" s="14" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="W39" s="5"/>
       <c r="X39" s="8"/>
     </row>
     <row r="40" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A40" s="49"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="68"/>
       <c r="C40" s="12"/>
       <c r="D40" s="6"/>
@@ -2912,39 +2955,39 @@
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
       <c r="U40" s="14"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="23"/>
-    </row>
-    <row r="41" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A41" s="49" t="s">
-        <v>93</v>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="9"/>
+    </row>
+    <row r="41" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A41" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="B41" s="68"/>
       <c r="C41" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="6"/>
       <c r="I41" s="14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="8"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
       <c r="O41" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
@@ -2954,16 +2997,14 @@
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
       <c r="U41" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="V41" s="5"/>
       <c r="W41" s="5"/>
       <c r="X41" s="8"/>
     </row>
     <row r="42" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A42" s="49"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="68"/>
       <c r="C42" s="12"/>
       <c r="D42" s="6"/>
@@ -2974,9 +3015,9 @@
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="9"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
       <c r="O42" s="19"/>
       <c r="P42" s="20"/>
       <c r="Q42" s="20"/>
@@ -2989,27 +3030,27 @@
       <c r="X42" s="23"/>
     </row>
     <row r="43" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A43" s="49" t="s">
-        <v>97</v>
+      <c r="A43" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="B43" s="68"/>
       <c r="C43" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="52"/>
+      <c r="E43" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M43" s="14"/>
       <c r="N43" s="14"/>
@@ -3017,7 +3058,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="S43" s="14"/>
       <c r="T43" s="14"/>
@@ -3029,14 +3070,14 @@
       <c r="X43" s="14"/>
     </row>
     <row r="44" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A44" s="49"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="68"/>
       <c r="C44" s="12"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="55"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -3055,94 +3096,94 @@
       <c r="X44" s="14"/>
     </row>
     <row r="45" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A45" s="62" t="s">
-        <v>100</v>
+      <c r="A45" s="49" t="s">
+        <v>94</v>
       </c>
       <c r="B45" s="68"/>
-      <c r="C45" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="43" t="s">
-        <v>104</v>
+      <c r="C45" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="J45" s="14"/>
-      <c r="K45" s="16"/>
+      <c r="K45" s="14"/>
       <c r="L45" s="14" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
-      <c r="O45" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
+      <c r="O45" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
       <c r="R45" s="14" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="S45" s="14"/>
       <c r="T45" s="14"/>
       <c r="U45" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="V45" s="43"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="14"/>
-    </row>
-    <row r="46" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A46" s="62"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="8"/>
+    </row>
+    <row r="46" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A46" s="49"/>
       <c r="B46" s="68"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="7"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="43"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="14"/>
       <c r="J46" s="14"/>
-      <c r="K46" s="16"/>
+      <c r="K46" s="14"/>
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
       <c r="N46" s="14"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
       <c r="R46" s="14"/>
       <c r="S46" s="14"/>
       <c r="T46" s="14"/>
       <c r="U46" s="14"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="9"/>
     </row>
     <row r="47" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A47" s="58" t="s">
-        <v>108</v>
+      <c r="A47" s="49" t="s">
+        <v>99</v>
       </c>
       <c r="B47" s="68"/>
       <c r="C47" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="6"/>
       <c r="I47" s="14" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
@@ -3151,25 +3192,27 @@
       </c>
       <c r="M47" s="14"/>
       <c r="N47" s="14"/>
-      <c r="O47" s="17">
-        <v>1234567</v>
+      <c r="O47" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="P47" s="18"/>
       <c r="Q47" s="18"/>
       <c r="R47" s="14" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="S47" s="14"/>
       <c r="T47" s="14"/>
       <c r="U47" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="V47" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="V47" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="W47" s="5"/>
       <c r="X47" s="8"/>
     </row>
     <row r="48" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A48" s="58"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="68"/>
       <c r="C48" s="12"/>
       <c r="D48" s="6"/>
@@ -3190,39 +3233,39 @@
       <c r="S48" s="14"/>
       <c r="T48" s="14"/>
       <c r="U48" s="14"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="9"/>
-    </row>
-    <row r="49" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A49" s="58" t="s">
-        <v>112</v>
+      <c r="V48" s="56"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="23"/>
+    </row>
+    <row r="49" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A49" s="49" t="s">
+        <v>105</v>
       </c>
       <c r="B49" s="68"/>
       <c r="C49" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="6"/>
       <c r="I49" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
-      <c r="L49" s="14" t="s">
+      <c r="L49" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="8"/>
       <c r="O49" s="17" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
@@ -3232,14 +3275,16 @@
       <c r="S49" s="14"/>
       <c r="T49" s="14"/>
       <c r="U49" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="V49" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="V49" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="W49" s="5"/>
       <c r="X49" s="8"/>
     </row>
     <row r="50" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A50" s="58"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="68"/>
       <c r="C50" s="12"/>
       <c r="D50" s="6"/>
@@ -3250,9 +3295,9 @@
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="9"/>
       <c r="O50" s="19"/>
       <c r="P50" s="20"/>
       <c r="Q50" s="20"/>
@@ -3265,105 +3310,105 @@
       <c r="X50" s="23"/>
     </row>
     <row r="51" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A51" s="58" t="s">
-        <v>116</v>
+      <c r="A51" s="49" t="s">
+        <v>109</v>
       </c>
       <c r="B51" s="68"/>
       <c r="C51" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
+      <c r="E51" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
       <c r="L51" s="14" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M51" s="14"/>
       <c r="N51" s="14"/>
-      <c r="O51" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
       <c r="R51" s="14" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="S51" s="14"/>
       <c r="T51" s="14"/>
       <c r="U51" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="8"/>
-    </row>
-    <row r="52" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A52" s="58"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+    </row>
+    <row r="52" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
+      <c r="A52" s="49"/>
       <c r="B52" s="68"/>
       <c r="C52" s="12"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
       <c r="N52" s="14"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
       <c r="R52" s="14"/>
       <c r="S52" s="14"/>
       <c r="T52" s="14"/>
       <c r="U52" s="14"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="23"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="14"/>
+      <c r="X52" s="14"/>
     </row>
     <row r="53" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A53" s="58" t="s">
-        <v>120</v>
+      <c r="A53" s="62" t="s">
+        <v>112</v>
       </c>
       <c r="B53" s="68"/>
-      <c r="C53" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
+      <c r="C53" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="J53" s="14"/>
+      <c r="K53" s="16"/>
       <c r="L53" s="14" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="M53" s="14"/>
       <c r="N53" s="14"/>
-      <c r="O53" s="4"/>
+      <c r="O53" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="S53" s="14"/>
       <c r="T53" s="14"/>
@@ -3374,22 +3419,22 @@
       <c r="W53" s="14"/>
       <c r="X53" s="14"/>
     </row>
-    <row r="54" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A54" s="58"/>
+    <row r="54" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A54" s="62"/>
       <c r="B54" s="68"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="16"/>
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
       <c r="N54" s="14"/>
-      <c r="O54" s="6"/>
+      <c r="O54" s="7"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="14"/>
@@ -3401,160 +3446,164 @@
       <c r="X54" s="14"/>
     </row>
     <row r="55" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="68"/>
+      <c r="C55" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="68"/>
-      <c r="C55" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="43" t="s">
-        <v>126</v>
-      </c>
       <c r="J55" s="14"/>
-      <c r="K55" s="16"/>
+      <c r="K55" s="14"/>
       <c r="L55" s="14" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
-      <c r="O55" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
+      <c r="O55" s="17">
+        <v>1234567</v>
+      </c>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
       <c r="R55" s="14" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="S55" s="14"/>
       <c r="T55" s="14"/>
       <c r="U55" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="V55" s="43"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="14"/>
-    </row>
-    <row r="56" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A56" s="63"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="8"/>
+    </row>
+    <row r="56" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A56" s="58"/>
       <c r="B56" s="68"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="7"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="43"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="14"/>
       <c r="J56" s="14"/>
-      <c r="K56" s="16"/>
+      <c r="K56" s="14"/>
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
       <c r="N56" s="14"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
       <c r="R56" s="14"/>
       <c r="S56" s="14"/>
       <c r="T56" s="14"/>
       <c r="U56" s="14"/>
-      <c r="V56" s="43"/>
-      <c r="W56" s="14"/>
-      <c r="X56" s="14"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="9"/>
     </row>
     <row r="57" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A57" s="64" t="s">
-        <v>129</v>
+      <c r="A57" s="58" t="s">
+        <v>124</v>
       </c>
       <c r="B57" s="68"/>
-      <c r="C57" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M57" s="5"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
+      <c r="C57" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
       <c r="R57" s="14" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="S57" s="14"/>
       <c r="T57" s="14"/>
       <c r="U57" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="V57" s="43"/>
-      <c r="W57" s="14"/>
-      <c r="X57" s="14"/>
-    </row>
-    <row r="58" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A58" s="64"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="8"/>
+    </row>
+    <row r="58" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A58" s="58"/>
       <c r="B58" s="68"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
       <c r="R58" s="14"/>
       <c r="S58" s="14"/>
       <c r="T58" s="14"/>
       <c r="U58" s="14"/>
-      <c r="V58" s="43"/>
-      <c r="W58" s="14"/>
-      <c r="X58" s="14"/>
+      <c r="V58" s="56"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="23"/>
     </row>
     <row r="59" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A59" s="10" t="s">
-        <v>133</v>
+      <c r="A59" s="58" t="s">
+        <v>128</v>
       </c>
       <c r="B59" s="68"/>
       <c r="C59" s="11" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="6"/>
       <c r="I59" s="14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
@@ -3564,12 +3613,12 @@
       <c r="M59" s="14"/>
       <c r="N59" s="14"/>
       <c r="O59" s="17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="P59" s="18"/>
       <c r="Q59" s="18"/>
       <c r="R59" s="14" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="S59" s="14"/>
       <c r="T59" s="14"/>
@@ -3581,7 +3630,7 @@
       <c r="X59" s="8"/>
     </row>
     <row r="60" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A60" s="10"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="68"/>
       <c r="C60" s="12"/>
       <c r="D60" s="6"/>
@@ -3602,239 +3651,231 @@
       <c r="S60" s="14"/>
       <c r="T60" s="14"/>
       <c r="U60" s="14"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="9"/>
+      <c r="V60" s="56"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="23"/>
     </row>
     <row r="61" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A61" s="10" t="s">
-        <v>138</v>
+      <c r="A61" s="58" t="s">
+        <v>132</v>
       </c>
       <c r="B61" s="68"/>
       <c r="C61" s="11" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
+      <c r="E61" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
       <c r="L61" s="14" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M61" s="14"/>
       <c r="N61" s="14"/>
-      <c r="O61" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
       <c r="R61" s="14" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="S61" s="14"/>
       <c r="T61" s="14"/>
       <c r="U61" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="8"/>
-    </row>
-    <row r="62" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A62" s="10"/>
+      <c r="V61" s="43"/>
+      <c r="W61" s="14"/>
+      <c r="X61" s="14"/>
+    </row>
+    <row r="62" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
+      <c r="A62" s="58"/>
       <c r="B62" s="68"/>
       <c r="C62" s="12"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
       <c r="N62" s="14"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
       <c r="R62" s="14"/>
       <c r="S62" s="14"/>
       <c r="T62" s="14"/>
       <c r="U62" s="14"/>
-      <c r="V62" s="56"/>
-      <c r="W62" s="22"/>
-      <c r="X62" s="23"/>
+      <c r="V62" s="43"/>
+      <c r="W62" s="14"/>
+      <c r="X62" s="14"/>
     </row>
     <row r="63" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A63" s="10" t="s">
-        <v>142</v>
+      <c r="A63" s="63" t="s">
+        <v>135</v>
       </c>
       <c r="B63" s="68"/>
-      <c r="C63" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="14" t="s">
-        <v>144</v>
+      <c r="C63" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="43" t="s">
+        <v>138</v>
       </c>
       <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
+      <c r="K63" s="16"/>
       <c r="L63" s="14" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="M63" s="14"/>
       <c r="N63" s="14"/>
-      <c r="O63" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
+      <c r="O63" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
       <c r="R63" s="14" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="S63" s="14"/>
       <c r="T63" s="14"/>
-      <c r="U63" s="16" t="s">
+      <c r="U63" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="V63" s="14" t="s">
-        <v>146</v>
-      </c>
+      <c r="V63" s="43"/>
       <c r="W63" s="14"/>
       <c r="X63" s="14"/>
     </row>
-    <row r="64" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A64" s="10"/>
+    <row r="64" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A64" s="63"/>
       <c r="B64" s="68"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="6"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="7"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="43"/>
       <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
+      <c r="K64" s="16"/>
       <c r="L64" s="14"/>
       <c r="M64" s="14"/>
       <c r="N64" s="14"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
       <c r="R64" s="14"/>
       <c r="S64" s="14"/>
       <c r="T64" s="14"/>
-      <c r="U64" s="16"/>
-      <c r="V64" s="14"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="43"/>
       <c r="W64" s="14"/>
       <c r="X64" s="14"/>
     </row>
     <row r="65" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A65" s="10" t="s">
-        <v>147</v>
+      <c r="A65" s="64" t="s">
+        <v>141</v>
       </c>
       <c r="B65" s="68"/>
-      <c r="C65" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>20</v>
+      <c r="C65" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M65" s="5"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
       <c r="R65" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S65" s="14"/>
       <c r="T65" s="14"/>
-      <c r="U65" s="16" t="s">
+      <c r="U65" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="V65" s="14" t="s">
-        <v>146</v>
-      </c>
+      <c r="V65" s="43"/>
       <c r="W65" s="14"/>
       <c r="X65" s="14"/>
     </row>
-    <row r="66" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A66" s="10"/>
+    <row r="66" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
+      <c r="A66" s="64"/>
       <c r="B66" s="68"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="6"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="7"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
       <c r="R66" s="14"/>
       <c r="S66" s="14"/>
       <c r="T66" s="14"/>
-      <c r="U66" s="16"/>
-      <c r="V66" s="14"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="43"/>
       <c r="W66" s="14"/>
       <c r="X66" s="14"/>
     </row>
     <row r="67" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A67" s="65" t="s">
-        <v>150</v>
+      <c r="A67" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="B67" s="68"/>
       <c r="C67" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="6"/>
       <c r="I67" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
@@ -3844,26 +3885,24 @@
       <c r="M67" s="14"/>
       <c r="N67" s="14"/>
       <c r="O67" s="17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P67" s="18"/>
       <c r="Q67" s="18"/>
       <c r="R67" s="14" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="S67" s="14"/>
       <c r="T67" s="14"/>
       <c r="U67" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="V67" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="V67" s="5"/>
       <c r="W67" s="5"/>
       <c r="X67" s="8"/>
     </row>
     <row r="68" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A68" s="65"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="68"/>
       <c r="C68" s="12"/>
       <c r="D68" s="6"/>
@@ -3889,24 +3928,24 @@
       <c r="X68" s="9"/>
     </row>
     <row r="69" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A69" s="65" t="s">
-        <v>156</v>
+      <c r="A69" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="B69" s="68"/>
       <c r="C69" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="6"/>
       <c r="I69" s="14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
@@ -3916,7 +3955,7 @@
       <c r="M69" s="14"/>
       <c r="N69" s="14"/>
       <c r="O69" s="17" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P69" s="18"/>
       <c r="Q69" s="18"/>
@@ -3933,7 +3972,7 @@
       <c r="X69" s="8"/>
     </row>
     <row r="70" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A70" s="65"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="68"/>
       <c r="C70" s="12"/>
       <c r="D70" s="6"/>
@@ -3959,54 +3998,60 @@
       <c r="X70" s="23"/>
     </row>
     <row r="71" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A71" s="65" t="s">
-        <v>159</v>
+      <c r="A71" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="B71" s="68"/>
       <c r="C71" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="14"/>
+      <c r="E71" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="14" t="s">
+        <v>156</v>
+      </c>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
       <c r="L71" s="14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M71" s="14"/>
       <c r="N71" s="14"/>
-      <c r="O71" s="17"/>
+      <c r="O71" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="P71" s="18"/>
       <c r="Q71" s="18"/>
       <c r="R71" s="14" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="S71" s="14"/>
       <c r="T71" s="14"/>
       <c r="U71" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="V71" s="14"/>
+      <c r="V71" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="W71" s="14"/>
       <c r="X71" s="14"/>
     </row>
     <row r="72" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A72" s="65"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="68"/>
       <c r="C72" s="12"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="16"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
@@ -4025,148 +4070,486 @@
       <c r="X72" s="14"/>
     </row>
     <row r="73" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A73" s="62" t="s">
-        <v>162</v>
+      <c r="A73" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="B73" s="68"/>
-      <c r="C73" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="43" t="s">
-        <v>165</v>
-      </c>
+      <c r="C73" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="14"/>
       <c r="J73" s="14"/>
-      <c r="K73" s="16"/>
+      <c r="K73" s="14"/>
       <c r="L73" s="14" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="M73" s="14"/>
       <c r="N73" s="14"/>
-      <c r="O73" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
       <c r="R73" s="14" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="S73" s="14"/>
       <c r="T73" s="14"/>
-      <c r="U73" s="14" t="s">
+      <c r="U73" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="V73" s="43"/>
+      <c r="V73" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="W73" s="14"/>
       <c r="X73" s="14"/>
     </row>
-    <row r="74" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A74" s="62"/>
+    <row r="74" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A74" s="10"/>
       <c r="B74" s="68"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="43"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="14"/>
       <c r="J74" s="14"/>
-      <c r="K74" s="16"/>
+      <c r="K74" s="14"/>
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
       <c r="N74" s="14"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
       <c r="R74" s="14"/>
       <c r="S74" s="14"/>
       <c r="T74" s="14"/>
-      <c r="U74" s="14"/>
-      <c r="V74" s="43"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="14"/>
       <c r="W74" s="14"/>
       <c r="X74" s="14"/>
     </row>
     <row r="75" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A75" s="70" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="C75" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="43"/>
+      <c r="A75" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="68"/>
+      <c r="C75" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="14" t="s">
+        <v>165</v>
+      </c>
       <c r="J75" s="14"/>
-      <c r="K75" s="16"/>
+      <c r="K75" s="14"/>
       <c r="L75" s="14" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="M75" s="14"/>
       <c r="N75" s="14"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
+      <c r="O75" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
       <c r="R75" s="14" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="S75" s="14"/>
       <c r="T75" s="14"/>
       <c r="U75" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="V75" s="43"/>
-      <c r="W75" s="14"/>
-      <c r="X75" s="14"/>
-    </row>
-    <row r="76" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A76" s="70"/>
-      <c r="B76" s="69"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="7"/>
+      <c r="V75" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="W75" s="5"/>
+      <c r="X75" s="8"/>
+    </row>
+    <row r="76" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A76" s="65"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="6"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="43"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="14"/>
       <c r="J76" s="14"/>
-      <c r="K76" s="16"/>
+      <c r="K76" s="14"/>
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
       <c r="N76" s="14"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
       <c r="R76" s="14"/>
       <c r="S76" s="14"/>
       <c r="T76" s="14"/>
       <c r="U76" s="14"/>
-      <c r="V76" s="43"/>
-      <c r="W76" s="14"/>
-      <c r="X76" s="14"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="9"/>
+    </row>
+    <row r="77" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A77" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="68"/>
+      <c r="C77" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="S77" s="14"/>
+      <c r="T77" s="14"/>
+      <c r="U77" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="8"/>
+    </row>
+    <row r="78" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A78" s="65"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="14"/>
+      <c r="T78" s="14"/>
+      <c r="U78" s="14"/>
+      <c r="V78" s="56"/>
+      <c r="W78" s="22"/>
+      <c r="X78" s="23"/>
+    </row>
+    <row r="79" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A79" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="68"/>
+      <c r="C79" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="S79" s="14"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="V79" s="14"/>
+      <c r="W79" s="14"/>
+      <c r="X79" s="14"/>
+    </row>
+    <row r="80" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A80" s="65"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="14"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="14"/>
+      <c r="W80" s="14"/>
+      <c r="X80" s="14"/>
+    </row>
+    <row r="81" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A81" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="68"/>
+      <c r="C81" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="J81" s="14"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="S81" s="14"/>
+      <c r="T81" s="14"/>
+      <c r="U81" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V81" s="43"/>
+      <c r="W81" s="14"/>
+      <c r="X81" s="14"/>
+    </row>
+    <row r="82" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A82" s="62"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="14"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="43"/>
+      <c r="W82" s="14"/>
+      <c r="X82" s="14"/>
+    </row>
+    <row r="83" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A83" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="B83" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="S83" s="14"/>
+      <c r="T83" s="14"/>
+      <c r="U83" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V83" s="43"/>
+      <c r="W83" s="14"/>
+      <c r="X83" s="14"/>
+    </row>
+    <row r="84" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A84" s="70"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="14"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="43"/>
+      <c r="W84" s="14"/>
+      <c r="X84" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="370">
+  <mergeCells count="410">
+    <mergeCell ref="V35:X36"/>
+    <mergeCell ref="V81:X82"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:H84"/>
+    <mergeCell ref="I83:K84"/>
+    <mergeCell ref="L83:N84"/>
+    <mergeCell ref="O83:Q84"/>
+    <mergeCell ref="R83:T84"/>
+    <mergeCell ref="U83:U84"/>
+    <mergeCell ref="V83:X84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:H12"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="L11:N12"/>
+    <mergeCell ref="O11:Q12"/>
+    <mergeCell ref="R11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:X12"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:H82"/>
+    <mergeCell ref="I81:K82"/>
+    <mergeCell ref="L81:N82"/>
+    <mergeCell ref="O81:Q82"/>
+    <mergeCell ref="R81:T82"/>
+    <mergeCell ref="U81:U82"/>
+    <mergeCell ref="V79:X80"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:H74"/>
+    <mergeCell ref="I73:K74"/>
+    <mergeCell ref="L73:N74"/>
+    <mergeCell ref="O73:Q74"/>
+    <mergeCell ref="R73:T74"/>
+    <mergeCell ref="U73:U74"/>
     <mergeCell ref="V73:X74"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B74"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:H80"/>
+    <mergeCell ref="I79:K80"/>
+    <mergeCell ref="L79:N80"/>
+    <mergeCell ref="O79:Q80"/>
+    <mergeCell ref="R79:T80"/>
+    <mergeCell ref="U79:U80"/>
+    <mergeCell ref="V75:X76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:H78"/>
+    <mergeCell ref="I77:K78"/>
+    <mergeCell ref="L77:N78"/>
+    <mergeCell ref="O77:Q78"/>
+    <mergeCell ref="R77:T78"/>
+    <mergeCell ref="U77:U78"/>
+    <mergeCell ref="V77:X78"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="D75:D76"/>
@@ -4176,28 +4559,7 @@
     <mergeCell ref="O75:Q76"/>
     <mergeCell ref="R75:T76"/>
     <mergeCell ref="U75:U76"/>
-    <mergeCell ref="V75:X76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:H74"/>
-    <mergeCell ref="I73:K74"/>
-    <mergeCell ref="L73:N74"/>
-    <mergeCell ref="O73:Q74"/>
-    <mergeCell ref="R73:T74"/>
-    <mergeCell ref="U73:U74"/>
-    <mergeCell ref="V71:X72"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:H66"/>
-    <mergeCell ref="I65:K66"/>
-    <mergeCell ref="L65:N66"/>
-    <mergeCell ref="O65:Q66"/>
-    <mergeCell ref="R65:T66"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="V65:X66"/>
+    <mergeCell ref="V69:X70"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="C71:C72"/>
     <mergeCell ref="D71:D72"/>
@@ -4207,7 +4569,7 @@
     <mergeCell ref="O71:Q72"/>
     <mergeCell ref="R71:T72"/>
     <mergeCell ref="U71:U72"/>
-    <mergeCell ref="V67:X68"/>
+    <mergeCell ref="V71:X72"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="D69:D70"/>
@@ -4217,7 +4579,10 @@
     <mergeCell ref="O69:Q70"/>
     <mergeCell ref="R69:T70"/>
     <mergeCell ref="U69:U70"/>
-    <mergeCell ref="V69:X70"/>
+    <mergeCell ref="O65:Q66"/>
+    <mergeCell ref="R65:T66"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="V65:X66"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="D67:D68"/>
@@ -4227,10 +4592,16 @@
     <mergeCell ref="O67:Q68"/>
     <mergeCell ref="R67:T68"/>
     <mergeCell ref="U67:U68"/>
-    <mergeCell ref="V61:X62"/>
+    <mergeCell ref="V67:X68"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:H66"/>
+    <mergeCell ref="I65:K66"/>
+    <mergeCell ref="L65:N66"/>
     <mergeCell ref="E63:H64"/>
     <mergeCell ref="I63:K64"/>
     <mergeCell ref="L63:N64"/>
@@ -4238,6 +4609,24 @@
     <mergeCell ref="R63:T64"/>
     <mergeCell ref="U63:U64"/>
     <mergeCell ref="V63:X64"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="E21:H22"/>
+    <mergeCell ref="I21:K22"/>
+    <mergeCell ref="L21:N22"/>
+    <mergeCell ref="O21:Q22"/>
+    <mergeCell ref="R21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:X22"/>
+    <mergeCell ref="E27:H28"/>
+    <mergeCell ref="I27:K28"/>
+    <mergeCell ref="L27:N28"/>
+    <mergeCell ref="O27:Q28"/>
+    <mergeCell ref="R27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:X28"/>
+    <mergeCell ref="E35:H36"/>
+    <mergeCell ref="V57:X58"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="D61:D62"/>
@@ -4247,10 +4636,7 @@
     <mergeCell ref="O61:Q62"/>
     <mergeCell ref="R61:T62"/>
     <mergeCell ref="U61:U62"/>
-    <mergeCell ref="O57:Q58"/>
-    <mergeCell ref="R57:T58"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="V57:X58"/>
+    <mergeCell ref="V61:X62"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="D59:D60"/>
@@ -4261,15 +4647,19 @@
     <mergeCell ref="R59:T60"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="V59:X60"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="E57:H58"/>
     <mergeCell ref="I57:K58"/>
     <mergeCell ref="L57:N58"/>
+    <mergeCell ref="O57:Q58"/>
+    <mergeCell ref="R57:T58"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="V53:X54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
     <mergeCell ref="E55:H56"/>
     <mergeCell ref="I55:K56"/>
     <mergeCell ref="L55:N56"/>
@@ -4277,9 +4667,6 @@
     <mergeCell ref="R55:T56"/>
     <mergeCell ref="U55:U56"/>
     <mergeCell ref="V55:X56"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="V49:X50"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="D53:D54"/>
@@ -4289,26 +4676,43 @@
     <mergeCell ref="O53:Q54"/>
     <mergeCell ref="R53:T54"/>
     <mergeCell ref="U53:U54"/>
-    <mergeCell ref="V53:X54"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="L51:N52"/>
+    <mergeCell ref="E49:H50"/>
+    <mergeCell ref="I49:K50"/>
+    <mergeCell ref="L49:N50"/>
+    <mergeCell ref="O49:Q50"/>
+    <mergeCell ref="R49:T50"/>
+    <mergeCell ref="V49:X50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="E51:H52"/>
     <mergeCell ref="I51:K52"/>
-    <mergeCell ref="L51:N52"/>
     <mergeCell ref="O51:Q52"/>
     <mergeCell ref="R51:T52"/>
+    <mergeCell ref="V51:X52"/>
     <mergeCell ref="U51:U52"/>
-    <mergeCell ref="V51:X52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:H50"/>
-    <mergeCell ref="I49:K50"/>
-    <mergeCell ref="L49:N50"/>
-    <mergeCell ref="O49:Q50"/>
-    <mergeCell ref="R49:T50"/>
-    <mergeCell ref="U49:U50"/>
     <mergeCell ref="V45:X46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="C47:C48"/>
@@ -4318,8 +4722,8 @@
     <mergeCell ref="L47:N48"/>
     <mergeCell ref="O47:Q48"/>
     <mergeCell ref="R47:T48"/>
-    <mergeCell ref="U47:U48"/>
     <mergeCell ref="V47:X48"/>
+    <mergeCell ref="O33:Q34"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
@@ -4328,130 +4732,87 @@
     <mergeCell ref="L45:N46"/>
     <mergeCell ref="O45:Q46"/>
     <mergeCell ref="R45:T46"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="L43:N44"/>
-    <mergeCell ref="E41:H42"/>
-    <mergeCell ref="I41:K42"/>
-    <mergeCell ref="L41:N42"/>
-    <mergeCell ref="O41:Q42"/>
-    <mergeCell ref="R41:T42"/>
-    <mergeCell ref="V41:X42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:H44"/>
-    <mergeCell ref="I43:K44"/>
-    <mergeCell ref="O43:Q44"/>
-    <mergeCell ref="R43:T44"/>
-    <mergeCell ref="V43:X44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="V37:X38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:H40"/>
-    <mergeCell ref="I39:K40"/>
-    <mergeCell ref="L39:N40"/>
-    <mergeCell ref="O39:Q40"/>
-    <mergeCell ref="R39:T40"/>
-    <mergeCell ref="V39:X40"/>
-    <mergeCell ref="O27:Q28"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="I37:K38"/>
-    <mergeCell ref="L37:N38"/>
-    <mergeCell ref="O37:Q38"/>
-    <mergeCell ref="R37:T38"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="I35:K36"/>
+    <mergeCell ref="L35:N36"/>
+    <mergeCell ref="O35:Q36"/>
+    <mergeCell ref="R35:T36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="O19:Q20"/>
-    <mergeCell ref="R19:T20"/>
-    <mergeCell ref="V19:X20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="I21:K22"/>
-    <mergeCell ref="L21:N22"/>
-    <mergeCell ref="O21:Q22"/>
-    <mergeCell ref="R21:T22"/>
-    <mergeCell ref="V21:X22"/>
+    <mergeCell ref="O23:Q24"/>
+    <mergeCell ref="R23:T24"/>
+    <mergeCell ref="V23:X24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="I25:K26"/>
+    <mergeCell ref="L25:N26"/>
     <mergeCell ref="O25:Q26"/>
     <mergeCell ref="R25:T26"/>
     <mergeCell ref="V25:X26"/>
-    <mergeCell ref="I23:K24"/>
-    <mergeCell ref="L23:N24"/>
-    <mergeCell ref="O23:Q24"/>
-    <mergeCell ref="R23:T24"/>
-    <mergeCell ref="V23:X24"/>
-    <mergeCell ref="R27:T28"/>
-    <mergeCell ref="V27:X28"/>
-    <mergeCell ref="E25:H26"/>
-    <mergeCell ref="E27:H28"/>
-    <mergeCell ref="E23:H24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="O31:Q32"/>
+    <mergeCell ref="R31:T32"/>
+    <mergeCell ref="V31:X32"/>
+    <mergeCell ref="I29:K30"/>
+    <mergeCell ref="L29:N30"/>
+    <mergeCell ref="O29:Q30"/>
+    <mergeCell ref="R29:T30"/>
+    <mergeCell ref="V29:X30"/>
+    <mergeCell ref="R33:T34"/>
+    <mergeCell ref="V33:X34"/>
+    <mergeCell ref="E31:H32"/>
+    <mergeCell ref="E33:H34"/>
+    <mergeCell ref="E29:H30"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="E7:H8"/>
     <mergeCell ref="E9:H10"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E15:H16"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:H24"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="E19:H20"/>
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="L19:N20"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:H20"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E25:H26"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="L17:N18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E21:H22"/>
-    <mergeCell ref="E15:H16"/>
-    <mergeCell ref="L11:N12"/>
+    <mergeCell ref="L13:N14"/>
     <mergeCell ref="I5:K6"/>
     <mergeCell ref="I7:K8"/>
+    <mergeCell ref="I39:K40"/>
+    <mergeCell ref="L39:N40"/>
+    <mergeCell ref="I23:K24"/>
+    <mergeCell ref="L23:N24"/>
     <mergeCell ref="I31:K32"/>
     <mergeCell ref="L31:N32"/>
-    <mergeCell ref="I19:K20"/>
-    <mergeCell ref="L19:N20"/>
-    <mergeCell ref="I25:K26"/>
-    <mergeCell ref="L25:N26"/>
-    <mergeCell ref="I27:K28"/>
-    <mergeCell ref="L27:N28"/>
+    <mergeCell ref="I33:K34"/>
+    <mergeCell ref="L33:N34"/>
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="I3:N3"/>
@@ -4474,73 +4835,73 @@
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="R9:T10"/>
     <mergeCell ref="V9:X10"/>
-    <mergeCell ref="V15:X16"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V17:X18"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="I13:K14"/>
-    <mergeCell ref="L13:N14"/>
-    <mergeCell ref="O13:Q14"/>
-    <mergeCell ref="R13:T14"/>
-    <mergeCell ref="V13:X14"/>
-    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="I15:K16"/>
     <mergeCell ref="L15:N16"/>
     <mergeCell ref="O15:Q16"/>
     <mergeCell ref="R15:T16"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="V15:X16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="L17:N18"/>
+    <mergeCell ref="O17:Q18"/>
+    <mergeCell ref="R17:T18"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="O9:Q10"/>
-    <mergeCell ref="O11:Q12"/>
-    <mergeCell ref="R11:T12"/>
-    <mergeCell ref="V11:X12"/>
+    <mergeCell ref="O13:Q14"/>
+    <mergeCell ref="R13:T14"/>
+    <mergeCell ref="V13:X14"/>
     <mergeCell ref="I9:K10"/>
     <mergeCell ref="L9:N10"/>
-    <mergeCell ref="E11:H12"/>
-    <mergeCell ref="I11:K12"/>
-    <mergeCell ref="O17:Q18"/>
-    <mergeCell ref="R17:T18"/>
-    <mergeCell ref="V17:X18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="L29:N30"/>
-    <mergeCell ref="O29:Q30"/>
-    <mergeCell ref="R29:T30"/>
-    <mergeCell ref="V29:X30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:H34"/>
-    <mergeCell ref="I33:K34"/>
-    <mergeCell ref="L33:N34"/>
-    <mergeCell ref="O33:Q34"/>
-    <mergeCell ref="R33:T34"/>
-    <mergeCell ref="V33:X34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:H30"/>
-    <mergeCell ref="I29:K30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="O31:Q32"/>
-    <mergeCell ref="R31:T32"/>
-    <mergeCell ref="V31:X32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:H36"/>
-    <mergeCell ref="I35:K36"/>
-    <mergeCell ref="L35:N36"/>
-    <mergeCell ref="O35:Q36"/>
-    <mergeCell ref="R35:T36"/>
-    <mergeCell ref="V35:X36"/>
-    <mergeCell ref="E31:H32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="I13:K14"/>
+    <mergeCell ref="O19:Q20"/>
+    <mergeCell ref="R19:T20"/>
+    <mergeCell ref="V19:X20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="L37:N38"/>
+    <mergeCell ref="O37:Q38"/>
+    <mergeCell ref="R37:T38"/>
+    <mergeCell ref="V37:X38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:H42"/>
+    <mergeCell ref="I41:K42"/>
+    <mergeCell ref="L41:N42"/>
+    <mergeCell ref="O41:Q42"/>
+    <mergeCell ref="R41:T42"/>
+    <mergeCell ref="V41:X42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="I37:K38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="O39:Q40"/>
+    <mergeCell ref="R39:T40"/>
+    <mergeCell ref="V39:X40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:H44"/>
+    <mergeCell ref="I43:K44"/>
+    <mergeCell ref="L43:N44"/>
+    <mergeCell ref="O43:Q44"/>
+    <mergeCell ref="R43:T44"/>
+    <mergeCell ref="V43:X44"/>
+    <mergeCell ref="E39:H40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
   </mergeCells>
-  <conditionalFormatting sqref="U1:U1048576">
+  <conditionalFormatting sqref="U1:U11 U13:U1048576">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1048576">
+  <conditionalFormatting sqref="U1:U11 U13:U1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -4554,7 +4915,7 @@
   <dimension ref="A2:V14"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4617,7 +4978,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>10</v>
@@ -4680,34 +5041,34 @@
     </row>
     <row r="7" spans="1:22" ht="27.75" customHeight="1">
       <c r="A7" s="45" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="5" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="4" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8"/>
       <c r="M7" s="14" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="16"/>
       <c r="P7" s="14" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
@@ -4744,13 +5105,13 @@
     </row>
     <row r="9" spans="1:22" ht="27.75" customHeight="1">
       <c r="A9" s="45" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -4759,17 +5120,17 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="4" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8"/>
       <c r="M9" s="14" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="16"/>
       <c r="P9" s="14" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
@@ -4806,13 +5167,13 @@
     </row>
     <row r="11" spans="1:22" ht="27.75" customHeight="1">
       <c r="A11" s="66" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -4821,7 +5182,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8"/>
@@ -4829,7 +5190,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="16"/>
       <c r="P11" s="14" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
@@ -4866,13 +5227,13 @@
     </row>
     <row r="13" spans="1:22" ht="27.75" customHeight="1">
       <c r="A13" s="66" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -4881,7 +5242,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="8"/>
@@ -4889,7 +5250,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="16"/>
       <c r="P13" s="14" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26704"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B450B183-F7AE-4F24-BB7D-19D6CBD40999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C8BF6E2-7DE6-451F-BC40-490077E900B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="214">
   <si>
     <t>アカウント登録画面のチェックテスト</t>
   </si>
@@ -747,6 +747,21 @@
   </si>
   <si>
     <t>・ページ遷移後、登録完了しましたの一文とTOPページへ戻るボタンが表示される。</t>
+  </si>
+  <si>
+    <t>No.5</t>
+  </si>
+  <si>
+    <t>TOPページ</t>
+  </si>
+  <si>
+    <t>D.Iブログのナビゲーションバーにある「アカウント登録」の項目を押下後、アカウント登録画面へ遷移する。</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーの「アカウント登録」ボタンを押下</t>
+  </si>
+  <si>
+    <t>・アカウント登録画面へ画面遷移する。</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1271,6 +1286,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1639,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35:Q36"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4912,10 +4930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484E10F7-ADFA-4808-B7B2-DE7DF0FA6782}">
-  <dimension ref="A2:V14"/>
+  <dimension ref="A2:V16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5285,9 +5303,78 @@
       <c r="U14" s="7"/>
       <c r="V14" s="9"/>
     </row>
+    <row r="15" spans="1:22" ht="27.75" customHeight="1">
+      <c r="A15" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="8"/>
+    </row>
+    <row r="16" spans="1:22" ht="132.75" customHeight="1">
+      <c r="A16" s="44"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="61">
     <mergeCell ref="T13:V14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="G15:I16"/>
+    <mergeCell ref="J15:L16"/>
+    <mergeCell ref="M15:O16"/>
+    <mergeCell ref="P15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:V16"/>
     <mergeCell ref="S11:S12"/>
     <mergeCell ref="T11:V12"/>
     <mergeCell ref="A13:A14"/>
@@ -5340,12 +5427,12 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
   </mergeCells>
-  <conditionalFormatting sqref="S5:S14">
+  <conditionalFormatting sqref="S5:S16">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S14">
+  <conditionalFormatting sqref="S5:S16">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26704"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C8BF6E2-7DE6-451F-BC40-490077E900B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0298FF2-4BBA-4A7B-97C5-FF11BDAA6A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="212">
   <si>
     <t>アカウント登録画面のチェックテスト</t>
   </si>
@@ -637,27 +637,6 @@
     <t>ページ更新時選択されたアカウント権限がチェック済みになる。</t>
   </si>
   <si>
-    <t>⑬</t>
-  </si>
-  <si>
-    <t>アカウント登録完了画面</t>
-  </si>
-  <si>
-    <t>ボタン</t>
-  </si>
-  <si>
-    <t>押下</t>
-  </si>
-  <si>
-    <t>ページ下の「TOPページに戻る」ボタンを押下することでTOPページに戻るかを確認する</t>
-  </si>
-  <si>
-    <t>1. ページ下の「TOPページに戻る」ボタンを押下する</t>
-  </si>
-  <si>
-    <t>クリック後TOPページに戻る。</t>
-  </si>
-  <si>
     <t>ページ</t>
   </si>
   <si>
@@ -750,6 +729,21 @@
   </si>
   <si>
     <t>No.5</t>
+  </si>
+  <si>
+    <t>アカウント登録完了画面</t>
+  </si>
+  <si>
+    <t>ページ下の「TOPページに戻る」ボタンを押下後、D.IブログTOPページに画面遷移するか確認する。</t>
+  </si>
+  <si>
+    <t>ページ下の「TOPページに戻る」ボタンを押下</t>
+  </si>
+  <si>
+    <t>・D.IブログTOPページへ画面遷移する。</t>
+  </si>
+  <si>
+    <t>No.6</t>
   </si>
   <si>
     <t>TOPページ</t>
@@ -1075,7 +1069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1102,9 +1096,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1147,9 +1138,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1219,9 +1207,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1246,9 +1231,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1264,31 +1246,34 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1655,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X84"/>
+  <dimension ref="A2:X82"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1676,148 +1661,148 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="30" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="30" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="30" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="60"/>
+      <c r="R2" s="56"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="32" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="32" t="s">
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="61">
+      <c r="P3" s="31"/>
+      <c r="Q3" s="57">
         <v>45117</v>
       </c>
-      <c r="R3" s="59"/>
+      <c r="R3" s="55"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="34" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38" t="s">
+      <c r="J5" s="32"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="38" t="s">
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="34" t="s">
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="34"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="35" t="s">
+      <c r="S5" s="32"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="34" t="s">
+      <c r="V5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="16"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1828,17 +1813,17 @@
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="14" t="s">
+      <c r="P7" s="13"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14" t="s">
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="V7" s="5"/>
@@ -1846,13 +1831,13 @@
       <c r="X7" s="8"/>
     </row>
     <row r="8" spans="1:24" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="4"/>
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
@@ -1860,34 +1845,34 @@
       <c r="L8" s="6"/>
       <c r="M8" s="7"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="9"/>
     </row>
     <row r="9" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1903,27 +1888,27 @@
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14" t="s">
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="43"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
     </row>
     <row r="10" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1933,31 +1918,31 @@
       <c r="O10" s="6"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
       <c r="V10" s="8"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="41" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="4" t="s">
         <v>34</v>
       </c>
@@ -1973,12 +1958,12 @@
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="14" t="s">
+      <c r="R11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="11" t="s">
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="10" t="s">
         <v>26</v>
       </c>
       <c r="V11" s="4"/>
@@ -1986,14 +1971,14 @@
       <c r="X11" s="8"/>
     </row>
     <row r="12" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
       <c r="K12" s="9"/>
@@ -2003,97 +1988,97 @@
       <c r="O12" s="6"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="9"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="12"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="11"/>
       <c r="V12" s="6"/>
       <c r="W12" s="7"/>
       <c r="X12" s="9"/>
     </row>
     <row r="13" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
       <c r="O13" s="4"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="14" t="s">
+      <c r="R13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14" t="s">
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V13" s="43"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
     </row>
     <row r="14" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
       <c r="O14" s="6"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
       <c r="V14" s="8"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="16"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="4" t="s">
         <v>22</v>
       </c>
@@ -2104,31 +2089,31 @@
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="14" t="s">
+      <c r="P15" s="13"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14" t="s">
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V15" s="43"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
     </row>
     <row r="16" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="4"/>
       <c r="I16" s="6"/>
       <c r="J16" s="7"/>
@@ -2136,34 +2121,34 @@
       <c r="L16" s="6"/>
       <c r="M16" s="7"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
       <c r="V16" s="8"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="62"/>
+      <c r="C17" s="41" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2179,61 +2164,61 @@
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="14" t="s">
+      <c r="R17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14" t="s">
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V17" s="43"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
     </row>
     <row r="18" spans="1:24" s="3" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
       <c r="O18" s="6"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
     </row>
     <row r="19" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="62"/>
+      <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="4" t="s">
         <v>34</v>
       </c>
@@ -2249,27 +2234,27 @@
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="14" t="s">
+      <c r="R19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14" t="s">
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V19" s="43"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
     </row>
     <row r="20" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
       <c r="K20" s="9"/>
@@ -2279,670 +2264,670 @@
       <c r="O20" s="6"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
       <c r="V20" s="8"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="62"/>
+      <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="4"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="4"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="14" t="s">
+      <c r="R21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14" t="s">
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V21" s="43"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
     </row>
     <row r="22" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="6"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
       <c r="O22" s="6"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
       <c r="V22" s="8"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
     </row>
     <row r="23" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="62"/>
+      <c r="C23" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="16"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="4" t="s">
         <v>56</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="43" t="s">
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="14" t="s">
+      <c r="P23" s="13"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14" t="s">
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V23" s="43"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
     </row>
     <row r="24" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="46"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="9"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
       <c r="V24" s="8"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
     </row>
     <row r="25" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="41" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="14" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="14" t="s">
+      <c r="J25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
       <c r="O25" s="5" t="s">
         <v>60</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="14" t="s">
+      <c r="R25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14" t="s">
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V25" s="43"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
     </row>
     <row r="26" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A26" s="46"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
     </row>
     <row r="27" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14" t="s">
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14" t="s">
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14" t="s">
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="43" t="s">
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="V27" s="43"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
     </row>
     <row r="28" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A28" s="46"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="43"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="41"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
     </row>
     <row r="29" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="62"/>
+      <c r="C29" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14" t="s">
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="43" t="s">
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="V29" s="43"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
     </row>
     <row r="30" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="43"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="41"/>
       <c r="V30" s="8"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
     </row>
     <row r="31" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="25" t="s">
+      <c r="B31" s="62"/>
+      <c r="C31" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="12" t="s">
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
       <c r="O31" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P31" s="12"/>
+      <c r="P31" s="11"/>
       <c r="Q31" s="6"/>
-      <c r="R31" s="12" t="s">
+      <c r="R31" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="14" t="s">
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V31" s="43"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
     </row>
     <row r="32" spans="1:24" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="9"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
       <c r="V32" s="8"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
     </row>
     <row r="33" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="14" t="s">
+      <c r="B33" s="62"/>
+      <c r="C33" s="41" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="43" t="s">
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="14" t="s">
+      <c r="J33" s="13"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
       <c r="O33" s="5" t="s">
         <v>75</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="14" t="s">
+      <c r="R33" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14" t="s">
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V33" s="43"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
     </row>
     <row r="34" spans="1:24" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="14"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
     </row>
     <row r="35" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="14" t="s">
+      <c r="B35" s="62"/>
+      <c r="C35" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14" t="s">
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14" t="s">
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14" t="s">
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14" t="s">
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="43" t="s">
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="V35" s="43"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
     </row>
     <row r="36" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A36" s="47"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="43"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="41"/>
       <c r="V36" s="8"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
     </row>
     <row r="37" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="11" t="s">
+      <c r="B37" s="62"/>
+      <c r="C37" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="14" t="s">
+      <c r="L37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
       <c r="O37" s="4"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="14" t="s">
+      <c r="R37" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14" t="s">
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V37" s="43"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
     </row>
     <row r="38" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A38" s="24"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
       <c r="O38" s="6"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
     </row>
     <row r="39" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="11" t="s">
+      <c r="B39" s="62"/>
+      <c r="C39" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14" t="s">
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="17" t="s">
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="14" t="s">
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14" t="s">
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13" t="s">
         <v>26</v>
       </c>
       <c r="V39" s="5" t="s">
@@ -2952,69 +2937,69 @@
       <c r="X39" s="8"/>
     </row>
     <row r="40" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
       <c r="X40" s="9"/>
     </row>
     <row r="41" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="11" t="s">
+      <c r="B41" s="62"/>
+      <c r="C41" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14" t="s">
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="17" t="s">
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="14" t="s">
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14" t="s">
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13" t="s">
         <v>26</v>
       </c>
       <c r="V41" s="5"/>
@@ -3022,135 +3007,135 @@
       <c r="X41" s="8"/>
     </row>
     <row r="42" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="12"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="56"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="23"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="22"/>
     </row>
     <row r="43" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="11" t="s">
+      <c r="B43" s="62"/>
+      <c r="C43" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="14" t="s">
+      <c r="L43" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
       <c r="O43" s="4"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
-      <c r="R43" s="14" t="s">
+      <c r="R43" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14" t="s">
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V43" s="43"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
     </row>
     <row r="44" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="12"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
       <c r="O44" s="6"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
     </row>
     <row r="45" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="68"/>
-      <c r="C45" s="11" t="s">
+      <c r="B45" s="62"/>
+      <c r="C45" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="14" t="s">
+      <c r="I45" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14" t="s">
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="17" t="s">
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="14" t="s">
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S45" s="14"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14" t="s">
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13" t="s">
         <v>26</v>
       </c>
       <c r="V45" s="5"/>
@@ -3158,69 +3143,69 @@
       <c r="X45" s="8"/>
     </row>
     <row r="46" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A46" s="49"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="12"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
       <c r="X46" s="9"/>
     </row>
     <row r="47" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="11" t="s">
+      <c r="B47" s="62"/>
+      <c r="C47" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="14" t="s">
+      <c r="I47" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14" t="s">
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="17" t="s">
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="14" t="s">
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14" t="s">
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13" t="s">
         <v>103</v>
       </c>
       <c r="V47" s="5" t="s">
@@ -3230,69 +3215,69 @@
       <c r="X47" s="8"/>
     </row>
     <row r="48" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A48" s="49"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="12"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="23"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="22"/>
     </row>
     <row r="49" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="11" t="s">
+      <c r="B49" s="62"/>
+      <c r="C49" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="14" t="s">
+      <c r="I49" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
       <c r="L49" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="8"/>
-      <c r="O49" s="17" t="s">
+      <c r="O49" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="14" t="s">
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14" t="s">
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13" t="s">
         <v>103</v>
       </c>
       <c r="V49" s="5" t="s">
@@ -3302,205 +3287,205 @@
       <c r="X49" s="8"/>
     </row>
     <row r="50" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A50" s="49"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="12"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
       <c r="L50" s="6"/>
       <c r="M50" s="7"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
-      <c r="T50" s="14"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="23"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="53"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="22"/>
     </row>
     <row r="51" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="11" t="s">
+      <c r="B51" s="62"/>
+      <c r="C51" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="50" t="s">
+      <c r="E51" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="52"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="49"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="14" t="s">
+      <c r="L51" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
       <c r="O51" s="4"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
-      <c r="R51" s="14" t="s">
+      <c r="R51" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14" t="s">
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V51" s="43"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="14"/>
+      <c r="V51" s="41"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
     </row>
     <row r="52" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A52" s="49"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="12"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="55"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="52"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
       <c r="O52" s="6"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="14"/>
-      <c r="X52" s="14"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="41"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
     </row>
     <row r="53" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A53" s="62" t="s">
+      <c r="A53" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="14" t="s">
+      <c r="B53" s="62"/>
+      <c r="C53" s="41" t="s">
         <v>113</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="43" t="s">
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="14" t="s">
+      <c r="J53" s="13"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
       <c r="O53" s="5" t="s">
         <v>118</v>
       </c>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
-      <c r="R53" s="14" t="s">
+      <c r="R53" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="S53" s="14"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14" t="s">
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V53" s="43"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="14"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
     </row>
     <row r="54" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A54" s="62"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="14"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="14"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
     </row>
     <row r="55" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A55" s="58" t="s">
+      <c r="A55" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="68"/>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="62"/>
+      <c r="C55" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="14" t="s">
+      <c r="I55" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14" t="s">
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="17">
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="16">
         <v>1234567</v>
       </c>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="14" t="s">
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14" t="s">
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13" t="s">
         <v>26</v>
       </c>
       <c r="V55" s="5"/>
@@ -3508,69 +3493,69 @@
       <c r="X55" s="8"/>
     </row>
     <row r="56" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A56" s="58"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="12"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
       <c r="X56" s="9"/>
     </row>
     <row r="57" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A57" s="58" t="s">
+      <c r="A57" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="11" t="s">
+      <c r="B57" s="62"/>
+      <c r="C57" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
       <c r="H57" s="6"/>
-      <c r="I57" s="14" t="s">
+      <c r="I57" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14" t="s">
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="17" t="s">
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="14" t="s">
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="14" t="s">
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13" t="s">
         <v>26</v>
       </c>
       <c r="V57" s="5"/>
@@ -3578,69 +3563,69 @@
       <c r="X57" s="8"/>
     </row>
     <row r="58" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A58" s="58"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="12"/>
+      <c r="A58" s="67"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="14"/>
-      <c r="U58" s="14"/>
-      <c r="V58" s="56"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="23"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="53"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="22"/>
     </row>
     <row r="59" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A59" s="58" t="s">
+      <c r="A59" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="11" t="s">
+      <c r="B59" s="62"/>
+      <c r="C59" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
       <c r="H59" s="6"/>
-      <c r="I59" s="14" t="s">
+      <c r="I59" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14" t="s">
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="17" t="s">
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="14" t="s">
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14" t="s">
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13" t="s">
         <v>26</v>
       </c>
       <c r="V59" s="5"/>
@@ -3648,184 +3633,184 @@
       <c r="X59" s="8"/>
     </row>
     <row r="60" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A60" s="58"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="12"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="14"/>
-      <c r="V60" s="56"/>
-      <c r="W60" s="22"/>
-      <c r="X60" s="23"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="53"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="22"/>
     </row>
     <row r="61" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A61" s="58" t="s">
+      <c r="A61" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="68"/>
-      <c r="C61" s="11" t="s">
+      <c r="B61" s="62"/>
+      <c r="C61" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="14" t="s">
+      <c r="L61" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
       <c r="O61" s="4"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
-      <c r="R61" s="14" t="s">
+      <c r="R61" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="S61" s="14"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="14" t="s">
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V61" s="43"/>
-      <c r="W61" s="14"/>
-      <c r="X61" s="14"/>
+      <c r="V61" s="41"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="13"/>
     </row>
     <row r="62" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A62" s="58"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="12"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="9"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
       <c r="O62" s="6"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
-      <c r="T62" s="14"/>
-      <c r="U62" s="14"/>
-      <c r="V62" s="43"/>
-      <c r="W62" s="14"/>
-      <c r="X62" s="14"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="41"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="13"/>
     </row>
     <row r="63" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A63" s="63" t="s">
+      <c r="A63" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="B63" s="68"/>
-      <c r="C63" s="14" t="s">
+      <c r="B63" s="62"/>
+      <c r="C63" s="41" t="s">
         <v>136</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="43" t="s">
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="14" t="s">
+      <c r="J63" s="13"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
       <c r="O63" s="5" t="s">
         <v>139</v>
       </c>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
-      <c r="R63" s="14" t="s">
+      <c r="R63" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S63" s="14"/>
-      <c r="T63" s="14"/>
-      <c r="U63" s="14" t="s">
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V63" s="43"/>
-      <c r="W63" s="14"/>
-      <c r="X63" s="14"/>
+      <c r="V63" s="41"/>
+      <c r="W63" s="13"/>
+      <c r="X63" s="13"/>
     </row>
     <row r="64" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A64" s="63"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="14"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="41"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
       <c r="O64" s="7"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="14"/>
-      <c r="V64" s="43"/>
-      <c r="W64" s="14"/>
-      <c r="X64" s="14"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="41"/>
+      <c r="W64" s="13"/>
+      <c r="X64" s="13"/>
     </row>
     <row r="65" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A65" s="64" t="s">
+      <c r="A65" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="B65" s="68"/>
-      <c r="C65" s="14" t="s">
+      <c r="B65" s="62"/>
+      <c r="C65" s="41" t="s">
         <v>136</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
@@ -3837,27 +3822,27 @@
       <c r="O65" s="4"/>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
-      <c r="R65" s="14" t="s">
+      <c r="R65" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="S65" s="14"/>
-      <c r="T65" s="14"/>
-      <c r="U65" s="14" t="s">
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V65" s="43"/>
-      <c r="W65" s="14"/>
-      <c r="X65" s="14"/>
+      <c r="V65" s="41"/>
+      <c r="W65" s="13"/>
+      <c r="X65" s="13"/>
     </row>
     <row r="66" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A66" s="64"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="14"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="41"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -3867,52 +3852,52 @@
       <c r="O66" s="6"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
-      <c r="R66" s="14"/>
-      <c r="S66" s="14"/>
-      <c r="T66" s="14"/>
-      <c r="U66" s="14"/>
-      <c r="V66" s="43"/>
-      <c r="W66" s="14"/>
-      <c r="X66" s="14"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="41"/>
+      <c r="W66" s="13"/>
+      <c r="X66" s="13"/>
     </row>
     <row r="67" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="68"/>
-      <c r="C67" s="11" t="s">
+      <c r="B67" s="62"/>
+      <c r="C67" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
       <c r="H67" s="6"/>
-      <c r="I67" s="14" t="s">
+      <c r="I67" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14" t="s">
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="17" t="s">
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="14" t="s">
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S67" s="14"/>
-      <c r="T67" s="14"/>
-      <c r="U67" s="14" t="s">
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13" t="s">
         <v>26</v>
       </c>
       <c r="V67" s="5"/>
@@ -3920,69 +3905,69 @@
       <c r="X67" s="8"/>
     </row>
     <row r="68" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A68" s="10"/>
-      <c r="B68" s="68"/>
-      <c r="C68" s="12"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="20"/>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="14"/>
-      <c r="S68" s="14"/>
-      <c r="T68" s="14"/>
-      <c r="U68" s="14"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13"/>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
       <c r="X68" s="9"/>
     </row>
     <row r="69" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="B69" s="68"/>
-      <c r="C69" s="11" t="s">
+      <c r="B69" s="62"/>
+      <c r="C69" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="14" t="s">
+      <c r="I69" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14" t="s">
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="17" t="s">
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="14" t="s">
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S69" s="14"/>
-      <c r="T69" s="14"/>
-      <c r="U69" s="14" t="s">
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13" t="s">
         <v>26</v>
       </c>
       <c r="V69" s="5"/>
@@ -3990,209 +3975,209 @@
       <c r="X69" s="8"/>
     </row>
     <row r="70" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A70" s="10"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="12"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="9"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="20"/>
-      <c r="Q70" s="20"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
-      <c r="T70" s="14"/>
-      <c r="U70" s="14"/>
-      <c r="V70" s="56"/>
-      <c r="W70" s="22"/>
-      <c r="X70" s="23"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="53"/>
+      <c r="W70" s="21"/>
+      <c r="X70" s="22"/>
     </row>
     <row r="71" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="68"/>
-      <c r="C71" s="11" t="s">
+      <c r="B71" s="62"/>
+      <c r="C71" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="14" t="s">
+      <c r="I71" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14" t="s">
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="17" t="s">
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="14" t="s">
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S71" s="14"/>
-      <c r="T71" s="14"/>
-      <c r="U71" s="16" t="s">
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V71" s="14" t="s">
+      <c r="V71" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="W71" s="14"/>
-      <c r="X71" s="14"/>
+      <c r="W71" s="13"/>
+      <c r="X71" s="13"/>
     </row>
     <row r="72" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A72" s="10"/>
-      <c r="B72" s="68"/>
-      <c r="C72" s="12"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="20"/>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="14"/>
-      <c r="S72" s="14"/>
-      <c r="T72" s="14"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="14"/>
-      <c r="W72" s="14"/>
-      <c r="X72" s="14"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="15"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
+      <c r="X72" s="13"/>
     </row>
     <row r="73" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="68"/>
-      <c r="C73" s="11" t="s">
+      <c r="B73" s="62"/>
+      <c r="C73" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14" t="s">
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="14" t="s">
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="S73" s="14"/>
-      <c r="T73" s="14"/>
-      <c r="U73" s="16" t="s">
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V73" s="14" t="s">
+      <c r="V73" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="W73" s="14"/>
-      <c r="X73" s="14"/>
+      <c r="W73" s="13"/>
+      <c r="X73" s="13"/>
     </row>
     <row r="74" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A74" s="10"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="12"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="9"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="20"/>
-      <c r="Q74" s="20"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="14"/>
-      <c r="T74" s="14"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="14"/>
-      <c r="W74" s="14"/>
-      <c r="X74" s="14"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="15"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="13"/>
+      <c r="X74" s="13"/>
     </row>
     <row r="75" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A75" s="65" t="s">
+      <c r="A75" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="B75" s="68"/>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="62"/>
+      <c r="C75" s="8" t="s">
         <v>163</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
       <c r="H75" s="6"/>
-      <c r="I75" s="14" t="s">
+      <c r="I75" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14" t="s">
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="17" t="s">
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="14" t="s">
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S75" s="14"/>
-      <c r="T75" s="14"/>
-      <c r="U75" s="14" t="s">
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13" t="s">
         <v>26</v>
       </c>
       <c r="V75" s="5" t="s">
@@ -4202,69 +4187,69 @@
       <c r="X75" s="8"/>
     </row>
     <row r="76" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A76" s="65"/>
-      <c r="B76" s="68"/>
-      <c r="C76" s="12"/>
+      <c r="A76" s="68"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="9"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="20"/>
-      <c r="R76" s="14"/>
-      <c r="S76" s="14"/>
-      <c r="T76" s="14"/>
-      <c r="U76" s="14"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13"/>
+      <c r="U76" s="13"/>
       <c r="V76" s="7"/>
       <c r="W76" s="7"/>
       <c r="X76" s="9"/>
     </row>
     <row r="77" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A77" s="65" t="s">
+      <c r="A77" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="B77" s="68"/>
-      <c r="C77" s="11" t="s">
+      <c r="B77" s="62"/>
+      <c r="C77" s="8" t="s">
         <v>163</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
       <c r="H77" s="6"/>
-      <c r="I77" s="14" t="s">
+      <c r="I77" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14" t="s">
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="17" t="s">
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
-      <c r="R77" s="14" t="s">
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
+      <c r="R77" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S77" s="14"/>
-      <c r="T77" s="14"/>
-      <c r="U77" s="14" t="s">
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13" t="s">
         <v>26</v>
       </c>
       <c r="V77" s="5"/>
@@ -4272,252 +4257,173 @@
       <c r="X77" s="8"/>
     </row>
     <row r="78" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A78" s="65"/>
-      <c r="B78" s="68"/>
-      <c r="C78" s="12"/>
+      <c r="A78" s="68"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="9"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="20"/>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="14"/>
-      <c r="S78" s="14"/>
-      <c r="T78" s="14"/>
-      <c r="U78" s="14"/>
-      <c r="V78" s="56"/>
-      <c r="W78" s="22"/>
-      <c r="X78" s="23"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="53"/>
+      <c r="W78" s="21"/>
+      <c r="X78" s="22"/>
     </row>
     <row r="79" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A79" s="65" t="s">
+      <c r="A79" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="B79" s="68"/>
-      <c r="C79" s="11" t="s">
+      <c r="B79" s="62"/>
+      <c r="C79" s="8" t="s">
         <v>163</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14" t="s">
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="14" t="s">
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="S79" s="14"/>
-      <c r="T79" s="14"/>
-      <c r="U79" s="16" t="s">
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V79" s="14"/>
-      <c r="W79" s="14"/>
-      <c r="X79" s="14"/>
+      <c r="V79" s="13"/>
+      <c r="W79" s="13"/>
+      <c r="X79" s="13"/>
     </row>
     <row r="80" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A80" s="65"/>
-      <c r="B80" s="68"/>
-      <c r="C80" s="12"/>
+      <c r="A80" s="68"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="9"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="20"/>
-      <c r="Q80" s="20"/>
-      <c r="R80" s="14"/>
-      <c r="S80" s="14"/>
-      <c r="T80" s="14"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="14"/>
-      <c r="W80" s="14"/>
-      <c r="X80" s="14"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="15"/>
+      <c r="V80" s="13"/>
+      <c r="W80" s="13"/>
+      <c r="X80" s="13"/>
     </row>
     <row r="81" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A81" s="62" t="s">
+      <c r="A81" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="68"/>
-      <c r="C81" s="14" t="s">
+      <c r="B81" s="62"/>
+      <c r="C81" s="41" t="s">
         <v>175</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="43" t="s">
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="J81" s="14"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="14" t="s">
+      <c r="J81" s="13"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
       <c r="O81" s="5" t="s">
         <v>179</v>
       </c>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
-      <c r="R81" s="14" t="s">
+      <c r="R81" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="S81" s="14"/>
-      <c r="T81" s="14"/>
-      <c r="U81" s="14" t="s">
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V81" s="43"/>
-      <c r="W81" s="14"/>
-      <c r="X81" s="14"/>
+      <c r="V81" s="41"/>
+      <c r="W81" s="13"/>
+      <c r="X81" s="13"/>
     </row>
     <row r="82" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A82" s="62"/>
-      <c r="B82" s="68"/>
-      <c r="C82" s="14"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="41"/>
       <c r="D82" s="7"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
       <c r="O82" s="7"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
-      <c r="R82" s="14"/>
-      <c r="S82" s="14"/>
-      <c r="T82" s="14"/>
-      <c r="U82" s="14"/>
-      <c r="V82" s="43"/>
-      <c r="W82" s="14"/>
-      <c r="X82" s="14"/>
-    </row>
-    <row r="83" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A83" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="B83" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="C83" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="S83" s="14"/>
-      <c r="T83" s="14"/>
-      <c r="U83" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="V83" s="43"/>
-      <c r="W83" s="14"/>
-      <c r="X83" s="14"/>
-    </row>
-    <row r="84" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A84" s="70"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="14"/>
-      <c r="S84" s="14"/>
-      <c r="T84" s="14"/>
-      <c r="U84" s="14"/>
-      <c r="V84" s="43"/>
-      <c r="W84" s="14"/>
-      <c r="X84" s="14"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13"/>
+      <c r="V82" s="41"/>
+      <c r="W82" s="13"/>
+      <c r="X82" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="410">
+  <mergeCells count="399">
     <mergeCell ref="V35:X36"/>
     <mergeCell ref="V81:X82"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:H84"/>
-    <mergeCell ref="I83:K84"/>
-    <mergeCell ref="L83:N84"/>
-    <mergeCell ref="O83:Q84"/>
-    <mergeCell ref="R83:T84"/>
-    <mergeCell ref="U83:U84"/>
-    <mergeCell ref="V83:X84"/>
-    <mergeCell ref="B83:B84"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
@@ -4930,10 +4836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484E10F7-ADFA-4808-B7B2-DE7DF0FA6782}">
-  <dimension ref="A2:V16"/>
+  <dimension ref="A2:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A16"/>
+      <selection activeCell="C17" sqref="C17:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4944,153 +4850,153 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="14.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="30" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="30" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="60"/>
+      <c r="P2" s="56"/>
     </row>
     <row r="3" spans="1:22" ht="14.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="32" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="32" t="s">
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="61">
+      <c r="N3" s="31"/>
+      <c r="O3" s="57">
         <v>45117</v>
       </c>
-      <c r="P3" s="59"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="34" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="38" t="s">
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="34" t="s">
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="35" t="s">
+      <c r="Q5" s="32"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
     </row>
     <row r="7" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A7" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14" t="s">
+      <c r="M7" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="T7" s="5"/>
@@ -5098,61 +5004,61 @@
       <c r="V7" s="8"/>
     </row>
     <row r="8" spans="1:22" ht="132.75" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="9"/>
     </row>
     <row r="9" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A9" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14" t="s">
+      <c r="M9" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13" t="s">
         <v>26</v>
       </c>
       <c r="T9" s="5"/>
@@ -5160,59 +5066,59 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="132.75" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="9"/>
     </row>
     <row r="11" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A11" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14" t="s">
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="T11" s="5"/>
@@ -5220,59 +5126,59 @@
       <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" ht="132.75" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="9"/>
     </row>
     <row r="13" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A13" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14" t="s">
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="T13" s="5"/>
@@ -5280,59 +5186,59 @@
       <c r="V13" s="8"/>
     </row>
     <row r="14" spans="1:22" ht="132.75" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="9"/>
     </row>
     <row r="15" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A15" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="A15" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14" t="s">
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13" t="s">
         <v>26</v>
       </c>
       <c r="T15" s="5"/>
@@ -5340,31 +5246,100 @@
       <c r="V15" s="8"/>
     </row>
     <row r="16" spans="1:22" ht="132.75" customHeight="1">
-      <c r="A16" s="44"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="9"/>
     </row>
+    <row r="17" spans="1:22" ht="27.75" customHeight="1">
+      <c r="A17" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="8"/>
+    </row>
+    <row r="18" spans="1:22" ht="132.75" customHeight="1">
+      <c r="A18" s="42"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="70">
+    <mergeCell ref="P17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:V18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="G17:I18"/>
+    <mergeCell ref="J17:L18"/>
+    <mergeCell ref="M17:O18"/>
     <mergeCell ref="T13:V14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -5427,12 +5402,12 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
   </mergeCells>
-  <conditionalFormatting sqref="S5:S16">
+  <conditionalFormatting sqref="S5:S18">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S16">
+  <conditionalFormatting sqref="S5:S18">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26704"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0298FF2-4BBA-4A7B-97C5-FF11BDAA6A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64A4991F-D4AF-4341-88C9-513DDEA81C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="213">
   <si>
     <t>アカウント登録画面のチェックテスト</t>
   </si>
@@ -449,6 +449,32 @@
     <t>入力する文字は半角数字のみ</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>0から始めると登録時に6桁でのDB登録となるためpattern属性を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[1-9]([0-9]{6})</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>に修正する必要あり。</t>
+    </r>
+  </si>
+  <si>
     <t>⑧-2</t>
   </si>
   <si>
@@ -592,7 +618,30 @@
 11-5</t>
   </si>
   <si>
-    <t>ハイフンが先頭に付く、ハイフンが2つ以上連続して続く、先頭の数字に0が入るといった入力を許可しているため修正が必要。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>ハイフンが先頭に付く、ハイフンが2つ以上連続して続く、先頭の数字に0が入るといった入力を許可しているため修正が必要。pattern属性を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[1-9]([0-9]*)(-[1-9]([0-9]*))*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>に修正する必要あり。</t>
+    </r>
   </si>
   <si>
     <t>⑪-2</t>
@@ -1642,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X82"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="K72" workbookViewId="0">
+      <selection activeCell="Y76" sqref="Y76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3488,7 +3537,9 @@
       <c r="U55" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V55" s="5"/>
+      <c r="V55" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="W55" s="5"/>
       <c r="X55" s="8"/>
     </row>
@@ -3520,7 +3571,7 @@
     </row>
     <row r="57" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A57" s="67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B57" s="62"/>
       <c r="C57" s="8" t="s">
@@ -3530,13 +3581,13 @@
         <v>20</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="6"/>
       <c r="I57" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
@@ -3546,7 +3597,7 @@
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
       <c r="O57" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P57" s="17"/>
       <c r="Q57" s="17"/>
@@ -3590,7 +3641,7 @@
     </row>
     <row r="59" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A59" s="67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B59" s="62"/>
       <c r="C59" s="8" t="s">
@@ -3600,13 +3651,13 @@
         <v>20</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="6"/>
       <c r="I59" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
@@ -3616,7 +3667,7 @@
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
       <c r="O59" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P59" s="17"/>
       <c r="Q59" s="17"/>
@@ -3660,7 +3711,7 @@
     </row>
     <row r="61" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A61" s="67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B61" s="62"/>
       <c r="C61" s="8" t="s">
@@ -3670,7 +3721,7 @@
         <v>20</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
@@ -3687,7 +3738,7 @@
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="S61" s="13"/>
       <c r="T61" s="13"/>
@@ -3726,23 +3777,23 @@
     </row>
     <row r="63" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A63" s="59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B63" s="62"/>
       <c r="C63" s="41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>114</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="I63" s="41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J63" s="13"/>
       <c r="K63" s="15"/>
@@ -3752,12 +3803,12 @@
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S63" s="13"/>
       <c r="T63" s="13"/>
@@ -3796,17 +3847,17 @@
     </row>
     <row r="65" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A65" s="59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B65" s="62"/>
       <c r="C65" s="41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>114</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
@@ -3815,7 +3866,7 @@
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="8"/>
@@ -3823,7 +3874,7 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S65" s="13"/>
       <c r="T65" s="13"/>
@@ -3862,23 +3913,23 @@
     </row>
     <row r="67" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A67" s="65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B67" s="62"/>
       <c r="C67" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="6"/>
       <c r="I67" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
@@ -3888,7 +3939,7 @@
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
       <c r="O67" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P67" s="17"/>
       <c r="Q67" s="17"/>
@@ -3932,23 +3983,23 @@
     </row>
     <row r="69" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A69" s="65" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B69" s="62"/>
       <c r="C69" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="6"/>
       <c r="I69" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
@@ -3958,7 +4009,7 @@
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
       <c r="O69" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P69" s="17"/>
       <c r="Q69" s="17"/>
@@ -4002,23 +4053,23 @@
     </row>
     <row r="71" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A71" s="65" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B71" s="62"/>
       <c r="C71" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="6"/>
       <c r="I71" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
@@ -4028,7 +4079,7 @@
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
       <c r="O71" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P71" s="17"/>
       <c r="Q71" s="17"/>
@@ -4041,7 +4092,7 @@
         <v>26</v>
       </c>
       <c r="V71" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="W71" s="13"/>
       <c r="X71" s="13"/>
@@ -4074,17 +4125,17 @@
     </row>
     <row r="73" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A73" s="65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B73" s="62"/>
       <c r="C73" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -4101,7 +4152,7 @@
       <c r="P73" s="17"/>
       <c r="Q73" s="17"/>
       <c r="R73" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="S73" s="13"/>
       <c r="T73" s="13"/>
@@ -4109,7 +4160,7 @@
         <v>26</v>
       </c>
       <c r="V73" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="W73" s="13"/>
       <c r="X73" s="13"/>
@@ -4142,23 +4193,23 @@
     </row>
     <row r="75" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A75" s="68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B75" s="62"/>
       <c r="C75" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="6"/>
       <c r="I75" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
@@ -4168,7 +4219,7 @@
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
       <c r="O75" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P75" s="17"/>
       <c r="Q75" s="17"/>
@@ -4181,12 +4232,12 @@
         <v>26</v>
       </c>
       <c r="V75" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W75" s="5"/>
       <c r="X75" s="8"/>
     </row>
-    <row r="76" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
+    <row r="76" spans="1:24" s="3" customFormat="1" ht="65.25" customHeight="1">
       <c r="A76" s="68"/>
       <c r="B76" s="62"/>
       <c r="C76" s="9"/>
@@ -4214,23 +4265,23 @@
     </row>
     <row r="77" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A77" s="68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B77" s="62"/>
       <c r="C77" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="6"/>
       <c r="I77" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J77" s="13"/>
       <c r="K77" s="13"/>
@@ -4240,7 +4291,7 @@
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
       <c r="O77" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P77" s="17"/>
       <c r="Q77" s="17"/>
@@ -4284,17 +4335,17 @@
     </row>
     <row r="79" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A79" s="68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B79" s="62"/>
       <c r="C79" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
@@ -4311,7 +4362,7 @@
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S79" s="13"/>
       <c r="T79" s="13"/>
@@ -4350,38 +4401,38 @@
     </row>
     <row r="81" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A81" s="58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B81" s="62"/>
       <c r="C81" s="41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>114</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
       <c r="I81" s="41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J81" s="13"/>
       <c r="K81" s="15"/>
       <c r="L81" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
       <c r="O81" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S81" s="13"/>
       <c r="T81" s="13"/>
@@ -4838,8 +4889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484E10F7-ADFA-4808-B7B2-DE7DF0FA6782}">
   <dimension ref="A2:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4902,7 +4953,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>10</v>
@@ -4965,34 +5016,34 @@
     </row>
     <row r="7" spans="1:22" ht="27.75" customHeight="1">
       <c r="A7" s="43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="8"/>
       <c r="M7" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="15"/>
       <c r="P7" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
@@ -5029,13 +5080,13 @@
     </row>
     <row r="9" spans="1:22" ht="27.75" customHeight="1">
       <c r="A9" s="43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -5044,17 +5095,17 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="8"/>
       <c r="M9" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="15"/>
       <c r="P9" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
@@ -5091,13 +5142,13 @@
     </row>
     <row r="11" spans="1:22" ht="27.75" customHeight="1">
       <c r="A11" s="60" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -5106,7 +5157,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8"/>
@@ -5114,7 +5165,7 @@
       <c r="N11" s="13"/>
       <c r="O11" s="15"/>
       <c r="P11" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
@@ -5151,13 +5202,13 @@
     </row>
     <row r="13" spans="1:22" ht="27.75" customHeight="1">
       <c r="A13" s="60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -5166,7 +5217,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="8"/>
@@ -5174,7 +5225,7 @@
       <c r="N13" s="13"/>
       <c r="O13" s="15"/>
       <c r="P13" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
@@ -5211,13 +5262,13 @@
     </row>
     <row r="15" spans="1:22" ht="27.75" customHeight="1">
       <c r="A15" s="69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -5226,7 +5277,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="8"/>
@@ -5234,7 +5285,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="15"/>
       <c r="P15" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
@@ -5271,13 +5322,13 @@
     </row>
     <row r="17" spans="1:22" ht="27.75" customHeight="1">
       <c r="A17" s="61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -5286,7 +5337,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="8"/>
@@ -5294,7 +5345,7 @@
       <c r="N17" s="13"/>
       <c r="O17" s="15"/>
       <c r="P17" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26707"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64A4991F-D4AF-4341-88C9-513DDEA81C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07CB51E6-242A-4D62-A023-7A9BDCE6910B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
-    <sheet name="結合テスト" sheetId="2" r:id="rId2"/>
+    <sheet name="単体テスト-アカウント登録" sheetId="1" r:id="rId1"/>
+    <sheet name="結合テスト-アカウント登録" sheetId="2" r:id="rId2"/>
+    <sheet name="単体テスト-アカウント一覧" sheetId="3" r:id="rId3"/>
+    <sheet name="結合テスト-アカウント一覧" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="259">
   <si>
     <t>アカウント登録画面のチェックテスト</t>
   </si>
@@ -806,12 +808,154 @@
   <si>
     <t>・アカウント登録画面へ画面遷移する。</t>
   </si>
+  <si>
+    <t>アカウント一覧画面のチェックテスト</t>
+  </si>
+  <si>
+    <t>アカウント一覧</t>
+  </si>
+  <si>
+    <t>表示</t>
+  </si>
+  <si>
+    <t>アカウント登録ページからアカウント登録後、登録した名前(姓)のアカウント情報がページ一覧に表示されているか確認する。</t>
+  </si>
+  <si>
+    <t>アカウント登録が既に完了している</t>
+  </si>
+  <si>
+    <t>1.アカウント登録画面よりアカウントを作成
+2.アカウント一覧画面を確認する</t>
+  </si>
+  <si>
+    <t>山本</t>
+  </si>
+  <si>
+    <t>アカウント一覧の一番上のアカウントの名前(姓)に「山本」が表示される。</t>
+  </si>
+  <si>
+    <t>アカウント登録ページからアカウント登録後、登録した名前(名)のアカウント情報がページ一覧に表示されているか確認する。</t>
+  </si>
+  <si>
+    <t>勇太</t>
+  </si>
+  <si>
+    <t>アカウント一覧の一番上のアカウントの名前(名)に「勇太」が表示される。</t>
+  </si>
+  <si>
+    <t>アカウント登録ページからアカウント登録後、登録したカナ(姓)のアカウント情報がページ一覧に表示されているか確認する。</t>
+  </si>
+  <si>
+    <t>ヤマモト</t>
+  </si>
+  <si>
+    <t>アカウント一覧の一番上のアカウントのカナ(姓)に「ヤマモト」が表示される。</t>
+  </si>
+  <si>
+    <t>アカウント登録ページからアカウント登録後、登録したカナ(名)のアカウント情報がページ一覧に表示されているか確認する。</t>
+  </si>
+  <si>
+    <t>ユウタ</t>
+  </si>
+  <si>
+    <t>アカウント一覧の一番上のアカウントのカナ(名)に「ユウタ」が表示される。</t>
+  </si>
+  <si>
+    <t>アカウント登録ページからアカウント登録後、登録したメールアドレスのアカウント情報がページ一覧に表示されているか確認する。</t>
+  </si>
+  <si>
+    <t>yamamoto@yahoo.co.jp</t>
+  </si>
+  <si>
+    <t>アカウント登録ページからアカウント登録後、選択した性別のアカウント情報がページ一覧に表示されているか確認する。</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>アカウント登録ページからアカウント登録後、選択したアカウント権限のアカウント情報がページ一覧に表示されているか確認する。</t>
+  </si>
+  <si>
+    <t>アカウント一覧の一番上のアカウントのアカウント権限に「管理者」が表示される。</t>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>アカウント登録ページからアカウント登録後、削除フラグがデフォルトで「有効」になっているかアカウント情報がページ一覧に表示されているか確認する。</t>
+  </si>
+  <si>
+    <t>アカウント一覧の一番上のアカウントの削除フラグに「有効」が表示される。</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>アカウント登録ページからアカウント登録後、登録完了した登録日時がアカウント情報がページ一覧に表示されているか確認する。</t>
+  </si>
+  <si>
+    <t>アカウント一覧の一番上のアカウントに登録日時が表示される。</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>アカウント登録ページからアカウント登録後、登録完了した登録日時と同日時の更新日時のアカウント情報がページ一覧に表示されているか確認する。</t>
+  </si>
+  <si>
+    <t>アカウント一覧の一番上のアカウントに登録日時と同日時の更新日時が表示される。</t>
+  </si>
+  <si>
+    <t>登録時点では登録日時と同日時で登録される</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>アカウント登録ページからアカウント登録後、新しく登録されたアカウントに対し更新と削除のボタンがあるか確認する。</t>
+  </si>
+  <si>
+    <t>アカウント一覧の一番上のアカウントの操作カラムに更新と削除のボタンが表示される。</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面</t>
+  </si>
+  <si>
+    <t>対象のレコードの操作カラムの「更新」ボタンを押下し、アカウント更新画面へ遷移するか確認をする。</t>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へ遷移
+2.アカウント一覧の操作カラムにある「更新」ボタンを押下</t>
+  </si>
+  <si>
+    <t>対象のレコードに対してのアカウント更新画面へ遷移する。</t>
+  </si>
+  <si>
+    <t>対象のレコードの操作カラムの「削除」ボタンを押下し、アカウント削除画面へ遷移するか確認をする。</t>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へ遷移
+2.アカウント一覧の操作カラムにある「削除」ボタンを押下</t>
+  </si>
+  <si>
+    <t>対象のレコードに対してのアカウント削除画面へ遷移する。</t>
+  </si>
+  <si>
+    <t>TOPページよりナビゲーションバーの「アカウント一覧」の項目を押下後、アカウント一覧画面に遷移するか確認する。</t>
+  </si>
+  <si>
+    <t>1.TOPページに移る
+2.TOPページよりナビゲーションバーにある「アカウント一覧」の項目を押下する</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面へ遷移する。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,6 +993,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1115,10 +1267,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1127,28 +1280,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1157,10 +1307,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1175,16 +1334,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,25 +1394,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1274,14 +1427,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1289,47 +1439,120 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1374,10 +1597,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFF4DBFF"/>
       <color rgb="FFBDFFF6"/>
-      <color rgb="FFF4DBFF"/>
+      <color rgb="FFFFD1D1"/>
       <color rgb="FFF3FFE0"/>
-      <color rgb="FFFFD1D1"/>
       <color rgb="FFFFA8A8"/>
     </mruColors>
   </colors>
@@ -1689,11 +1912,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFD1D1"/>
+  </sheetPr>
   <dimension ref="A2:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K72" workbookViewId="0">
-      <selection activeCell="Y76" sqref="Y76"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -1710,1666 +1934,1666 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="28" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="28" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="56"/>
+      <c r="R2" s="55"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="30" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="30" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="57">
+      <c r="P3" s="33"/>
+      <c r="Q3" s="56">
         <v>45117</v>
       </c>
-      <c r="R3" s="55"/>
+      <c r="R3" s="57"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="32" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36" t="s">
+      <c r="J5" s="34"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="36" t="s">
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="32" t="s">
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="32"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="33" t="s">
+      <c r="S5" s="34"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="32" t="s">
+      <c r="V5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="33"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="4" t="s">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="13" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="13"/>
+      <c r="P7" s="12"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13" t="s">
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="8"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:24" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="9"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="7"/>
     </row>
     <row r="9" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="4" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="4" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="4" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="13" t="s">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13" t="s">
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="41"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
     </row>
     <row r="11" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="4" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="4" t="s">
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="4" t="s">
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="13" t="s">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="10" t="s">
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="8"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="5"/>
     </row>
     <row r="12" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="64"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="9"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="7"/>
     </row>
     <row r="13" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="13" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="13" t="s">
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13" t="s">
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V13" s="41"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A14" s="64"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="4" t="s">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="13" t="s">
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="13"/>
+      <c r="P15" s="12"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="13" t="s">
+      <c r="R15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13" t="s">
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V15" s="41"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
     </row>
     <row r="17" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="41" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="4" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="4" t="s">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="4" t="s">
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="13" t="s">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13" t="s">
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V17" s="41"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
     </row>
     <row r="18" spans="1:24" s="3" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
     </row>
     <row r="19" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="60"/>
+      <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="4" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="4" t="s">
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="4" t="s">
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="13" t="s">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13" t="s">
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V19" s="41"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
     </row>
     <row r="20" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
     </row>
     <row r="21" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="60"/>
+      <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="13" t="s">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="13" t="s">
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13" t="s">
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V21" s="41"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
     </row>
     <row r="22" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
     </row>
     <row r="23" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="13" t="s">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="41" t="s">
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P23" s="13"/>
+      <c r="P23" s="12"/>
       <c r="Q23" s="15"/>
-      <c r="R23" s="13" t="s">
+      <c r="R23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13" t="s">
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V23" s="41"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
     </row>
     <row r="24" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="13"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="12"/>
       <c r="Q24" s="15"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
     </row>
     <row r="25" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="41" t="s">
+      <c r="B25" s="60"/>
+      <c r="C25" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="13"/>
+      <c r="J25" s="12"/>
       <c r="K25" s="15"/>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="5" t="s">
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="13" t="s">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13" t="s">
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V25" s="41"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
     </row>
     <row r="26" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
     </row>
     <row r="27" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="41" t="s">
+      <c r="B27" s="60"/>
+      <c r="C27" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13" t="s">
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13" t="s">
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13" t="s">
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="41" t="s">
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V27" s="41"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
     </row>
     <row r="28" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A28" s="44"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="41" t="s">
+      <c r="B29" s="60"/>
+      <c r="C29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13" t="s">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13" t="s">
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="41" t="s">
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V29" s="41"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
     </row>
     <row r="30" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A30" s="44"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
     </row>
     <row r="31" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="60"/>
+      <c r="C31" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="20" t="s">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="11" t="s">
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="9" t="s">
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="11" t="s">
+      <c r="P31" s="14"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="13" t="s">
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V31" s="41"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
     </row>
     <row r="32" spans="1:24" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="13"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="12"/>
       <c r="Q32" s="15"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
     </row>
     <row r="33" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="41" t="s">
+      <c r="B33" s="60"/>
+      <c r="C33" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="41" t="s">
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="13"/>
+      <c r="J33" s="12"/>
       <c r="K33" s="15"/>
-      <c r="L33" s="13" t="s">
+      <c r="L33" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="5" t="s">
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="13" t="s">
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13" t="s">
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V33" s="41"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
     </row>
     <row r="34" spans="1:24" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="13"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="12"/>
       <c r="K34" s="15"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
     </row>
     <row r="35" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="41" t="s">
+      <c r="B35" s="60"/>
+      <c r="C35" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13" t="s">
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13" t="s">
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13" t="s">
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="41" t="s">
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V35" s="41"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
     </row>
     <row r="36" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A36" s="45"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
     </row>
     <row r="37" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="60"/>
+      <c r="C37" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="13" t="s">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="13" t="s">
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13" t="s">
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V37" s="41"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
     </row>
     <row r="38" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A38" s="45"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
     </row>
     <row r="39" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="60"/>
+      <c r="C39" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="13" t="s">
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13" t="s">
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="16" t="s">
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="13" t="s">
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13" t="s">
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V39" s="5" t="s">
+      <c r="V39" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="W39" s="5"/>
-      <c r="X39" s="8"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="5"/>
     </row>
     <row r="40" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A40" s="65"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="15"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="9"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="7"/>
     </row>
     <row r="41" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="60"/>
+      <c r="C41" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="13" t="s">
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13" t="s">
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="16" t="s">
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="13" t="s">
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13" t="s">
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="8"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="5"/>
     </row>
     <row r="42" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A42" s="65"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="15"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="22"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="23"/>
     </row>
     <row r="43" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="8" t="s">
+      <c r="B43" s="60"/>
+      <c r="C43" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="13" t="s">
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="13" t="s">
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13" t="s">
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V43" s="41"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
     </row>
     <row r="44" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A44" s="65"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="41"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
     </row>
     <row r="45" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="62"/>
-      <c r="C45" s="8" t="s">
+      <c r="B45" s="60"/>
+      <c r="C45" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="13" t="s">
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13" t="s">
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="16" t="s">
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="13" t="s">
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13" t="s">
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="8"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="5"/>
     </row>
     <row r="46" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A46" s="66"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
       <c r="H46" s="15"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="9"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="7"/>
     </row>
     <row r="47" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A47" s="66" t="s">
+      <c r="A47" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="8" t="s">
+      <c r="B47" s="60"/>
+      <c r="C47" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="13" t="s">
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13" t="s">
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="16" t="s">
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="13" t="s">
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13" t="s">
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="V47" s="5" t="s">
+      <c r="V47" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="W47" s="5"/>
-      <c r="X47" s="8"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="5"/>
     </row>
     <row r="48" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A48" s="66"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
       <c r="H48" s="15"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="22"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="23"/>
     </row>
     <row r="49" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A49" s="66" t="s">
+      <c r="A49" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="62"/>
-      <c r="C49" s="8" t="s">
+      <c r="B49" s="60"/>
+      <c r="C49" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="13" t="s">
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="4" t="s">
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M49" s="5"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="16" t="s">
+      <c r="M49" s="4"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="13" t="s">
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13" t="s">
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="V49" s="5" t="s">
+      <c r="V49" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="W49" s="5"/>
-      <c r="X49" s="8"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="5"/>
     </row>
     <row r="50" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A50" s="66"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
       <c r="H50" s="15"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="53"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="22"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="23"/>
     </row>
     <row r="51" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="8" t="s">
+      <c r="B51" s="60"/>
+      <c r="C51" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="47" t="s">
@@ -3378,1100 +3602,1099 @@
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
       <c r="H51" s="49"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="13" t="s">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="13" t="s">
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13" t="s">
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V51" s="41"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
     </row>
     <row r="52" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A52" s="66"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="50"/>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
       <c r="H52" s="52"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="41"/>
-      <c r="W52" s="13"/>
-      <c r="X52" s="13"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
     </row>
     <row r="53" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="41" t="s">
+      <c r="B53" s="60"/>
+      <c r="C53" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="41" t="s">
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="J53" s="13"/>
+      <c r="J53" s="12"/>
       <c r="K53" s="15"/>
-      <c r="L53" s="13" t="s">
+      <c r="L53" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="5" t="s">
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="13" t="s">
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13" t="s">
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V53" s="41"/>
-      <c r="W53" s="13"/>
-      <c r="X53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
     </row>
     <row r="54" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A54" s="58"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="13"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="12"/>
       <c r="K54" s="15"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
-      <c r="V54" s="41"/>
-      <c r="W54" s="13"/>
-      <c r="X54" s="13"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
     </row>
     <row r="55" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="62"/>
-      <c r="C55" s="8" t="s">
+      <c r="B55" s="60"/>
+      <c r="C55" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="13" t="s">
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13" t="s">
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="16">
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="18">
         <v>1234567</v>
       </c>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="13" t="s">
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13" t="s">
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V55" s="5" t="s">
+      <c r="V55" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="W55" s="5"/>
-      <c r="X55" s="8"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="5"/>
     </row>
     <row r="56" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A56" s="67"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
       <c r="H56" s="15"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="9"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="7"/>
     </row>
     <row r="57" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="8" t="s">
+      <c r="B57" s="60"/>
+      <c r="C57" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="13" t="s">
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13" t="s">
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="16" t="s">
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="13" t="s">
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13" t="s">
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="8"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="5"/>
     </row>
     <row r="58" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A58" s="67"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
       <c r="H58" s="15"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="53"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="22"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="23"/>
     </row>
     <row r="59" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="62"/>
-      <c r="C59" s="8" t="s">
+      <c r="B59" s="60"/>
+      <c r="C59" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="13" t="s">
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13" t="s">
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="16" t="s">
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="13" t="s">
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="13" t="s">
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="8"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="5"/>
     </row>
     <row r="60" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A60" s="67"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
       <c r="H60" s="15"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="13"/>
-      <c r="V60" s="53"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="22"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="23"/>
     </row>
     <row r="61" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A61" s="67" t="s">
+      <c r="A61" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="62"/>
-      <c r="C61" s="8" t="s">
+      <c r="B61" s="60"/>
+      <c r="C61" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="13" t="s">
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="13" t="s">
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13" t="s">
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V61" s="41"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
     </row>
     <row r="62" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A62" s="67"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="41"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="13"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
     </row>
     <row r="63" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="62"/>
-      <c r="C63" s="41" t="s">
+      <c r="B63" s="60"/>
+      <c r="C63" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="41" t="s">
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="J63" s="13"/>
+      <c r="J63" s="12"/>
       <c r="K63" s="15"/>
-      <c r="L63" s="13" t="s">
+      <c r="L63" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="5" t="s">
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="13" t="s">
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="13" t="s">
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V63" s="41"/>
-      <c r="W63" s="13"/>
-      <c r="X63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
     </row>
     <row r="64" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A64" s="59"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="13"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="12"/>
       <c r="K64" s="15"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="41"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="13"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
     </row>
     <row r="65" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A65" s="59" t="s">
+      <c r="A65" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="62"/>
-      <c r="C65" s="41" t="s">
+      <c r="B65" s="60"/>
+      <c r="C65" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="4" t="s">
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="M65" s="5"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="13" t="s">
+      <c r="M65" s="4"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="13" t="s">
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V65" s="41"/>
-      <c r="W65" s="13"/>
-      <c r="X65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
     </row>
     <row r="66" spans="1:24" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A66" s="59"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
-      <c r="U66" s="13"/>
-      <c r="V66" s="41"/>
-      <c r="W66" s="13"/>
-      <c r="X66" s="13"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
     </row>
     <row r="67" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A67" s="65" t="s">
+      <c r="A67" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B67" s="62"/>
-      <c r="C67" s="8" t="s">
+      <c r="B67" s="60"/>
+      <c r="C67" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="13" t="s">
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13" t="s">
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="16" t="s">
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="13" t="s">
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
-      <c r="U67" s="13" t="s">
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="8"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="5"/>
     </row>
     <row r="68" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A68" s="65"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
       <c r="H68" s="15"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="18"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
-      <c r="U68" s="13"/>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="9"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="7"/>
     </row>
     <row r="69" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A69" s="65" t="s">
+      <c r="A69" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="8" t="s">
+      <c r="B69" s="60"/>
+      <c r="C69" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="13" t="s">
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13" t="s">
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="16" t="s">
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="13" t="s">
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="13" t="s">
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="8"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="5"/>
     </row>
     <row r="70" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A70" s="65"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
       <c r="H70" s="15"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="18"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="13"/>
-      <c r="S70" s="13"/>
-      <c r="T70" s="13"/>
-      <c r="U70" s="13"/>
-      <c r="V70" s="53"/>
-      <c r="W70" s="21"/>
-      <c r="X70" s="22"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="22"/>
+      <c r="W70" s="22"/>
+      <c r="X70" s="23"/>
     </row>
     <row r="71" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A71" s="65" t="s">
+      <c r="A71" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B71" s="62"/>
-      <c r="C71" s="8" t="s">
+      <c r="B71" s="60"/>
+      <c r="C71" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="13" t="s">
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13" t="s">
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="16" t="s">
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
-      <c r="R71" s="13" t="s">
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S71" s="13"/>
-      <c r="T71" s="13"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
       <c r="U71" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V71" s="13" t="s">
+      <c r="V71" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="W71" s="13"/>
-      <c r="X71" s="13"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
     </row>
     <row r="72" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A72" s="65"/>
-      <c r="B72" s="62"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
       <c r="H72" s="15"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="13"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
       <c r="U72" s="15"/>
-      <c r="V72" s="13"/>
-      <c r="W72" s="13"/>
-      <c r="X72" s="13"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
     </row>
     <row r="73" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A73" s="65" t="s">
+      <c r="A73" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B73" s="62"/>
-      <c r="C73" s="8" t="s">
+      <c r="B73" s="60"/>
+      <c r="C73" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13" t="s">
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
-      <c r="R73" s="13" t="s">
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
       <c r="U73" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V73" s="13" t="s">
+      <c r="V73" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="W73" s="13"/>
-      <c r="X73" s="13"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
     </row>
     <row r="74" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A74" s="65"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
       <c r="U74" s="15"/>
-      <c r="V74" s="13"/>
-      <c r="W74" s="13"/>
-      <c r="X74" s="13"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
     </row>
     <row r="75" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A75" s="68" t="s">
+      <c r="A75" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="B75" s="62"/>
-      <c r="C75" s="8" t="s">
+      <c r="B75" s="60"/>
+      <c r="C75" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="13" t="s">
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13" t="s">
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="16" t="s">
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="13" t="s">
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="13" t="s">
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V75" s="5" t="s">
+      <c r="V75" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="W75" s="5"/>
-      <c r="X75" s="8"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="5"/>
     </row>
     <row r="76" spans="1:24" s="3" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A76" s="68"/>
-      <c r="B76" s="62"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
       <c r="H76" s="15"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="13"/>
-      <c r="U76" s="13"/>
-      <c r="V76" s="7"/>
-      <c r="W76" s="7"/>
-      <c r="X76" s="9"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="7"/>
     </row>
     <row r="77" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="B77" s="62"/>
-      <c r="C77" s="8" t="s">
+      <c r="B77" s="60"/>
+      <c r="C77" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="13" t="s">
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13" t="s">
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="16" t="s">
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
-      <c r="R77" s="13" t="s">
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
-      <c r="U77" s="13" t="s">
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="8"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="5"/>
     </row>
     <row r="78" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A78" s="68"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
       <c r="H78" s="15"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="13"/>
-      <c r="U78" s="13"/>
-      <c r="V78" s="53"/>
-      <c r="W78" s="21"/>
-      <c r="X78" s="22"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="22"/>
+      <c r="W78" s="22"/>
+      <c r="X78" s="23"/>
     </row>
     <row r="79" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A79" s="68" t="s">
+      <c r="A79" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="62"/>
-      <c r="C79" s="8" t="s">
+      <c r="B79" s="60"/>
+      <c r="C79" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13" t="s">
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
-      <c r="R79" s="13" t="s">
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="S79" s="13"/>
-      <c r="T79" s="13"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
       <c r="U79" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V79" s="13"/>
-      <c r="W79" s="13"/>
-      <c r="X79" s="13"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="12"/>
+      <c r="X79" s="12"/>
     </row>
     <row r="80" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A80" s="68"/>
-      <c r="B80" s="62"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="13"/>
-      <c r="T80" s="13"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
       <c r="U80" s="15"/>
-      <c r="V80" s="13"/>
-      <c r="W80" s="13"/>
-      <c r="X80" s="13"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="12"/>
+      <c r="X80" s="12"/>
     </row>
     <row r="81" spans="1:24" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A81" s="58" t="s">
+      <c r="A81" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="B81" s="62"/>
-      <c r="C81" s="41" t="s">
+      <c r="B81" s="60"/>
+      <c r="C81" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="41" t="s">
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="J81" s="13"/>
+      <c r="J81" s="12"/>
       <c r="K81" s="15"/>
-      <c r="L81" s="13" t="s">
+      <c r="L81" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="5" t="s">
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="13" t="s">
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="S81" s="13"/>
-      <c r="T81" s="13"/>
-      <c r="U81" s="13" t="s">
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V81" s="41"/>
-      <c r="W81" s="13"/>
-      <c r="X81" s="13"/>
+      <c r="V81" s="13"/>
+      <c r="W81" s="12"/>
+      <c r="X81" s="12"/>
     </row>
     <row r="82" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A82" s="58"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="13"/>
+      <c r="A82" s="54"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="12"/>
       <c r="K82" s="15"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
-      <c r="T82" s="13"/>
-      <c r="U82" s="13"/>
-      <c r="V82" s="41"/>
-      <c r="W82" s="13"/>
-      <c r="X82" s="13"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="13"/>
+      <c r="W82" s="12"/>
+      <c r="X82" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="399">
-    <mergeCell ref="V35:X36"/>
     <mergeCell ref="V81:X82"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B82"/>
@@ -4602,6 +4825,8 @@
     <mergeCell ref="V27:X28"/>
     <mergeCell ref="E35:H36"/>
     <mergeCell ref="V57:X58"/>
+    <mergeCell ref="V61:X62"/>
+    <mergeCell ref="V59:X60"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="D61:D62"/>
@@ -4611,7 +4836,6 @@
     <mergeCell ref="O61:Q62"/>
     <mergeCell ref="R61:T62"/>
     <mergeCell ref="U61:U62"/>
-    <mergeCell ref="V61:X62"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="D59:D60"/>
@@ -4621,7 +4845,6 @@
     <mergeCell ref="O59:Q60"/>
     <mergeCell ref="R59:T60"/>
     <mergeCell ref="U59:U60"/>
-    <mergeCell ref="V59:X60"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="D57:D58"/>
@@ -4631,16 +4854,6 @@
     <mergeCell ref="O57:Q58"/>
     <mergeCell ref="R57:T58"/>
     <mergeCell ref="U57:U58"/>
-    <mergeCell ref="V53:X54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:H56"/>
-    <mergeCell ref="I55:K56"/>
-    <mergeCell ref="L55:N56"/>
-    <mergeCell ref="O55:Q56"/>
-    <mergeCell ref="R55:T56"/>
-    <mergeCell ref="U55:U56"/>
     <mergeCell ref="V55:X56"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="C53:C54"/>
@@ -4651,7 +4864,15 @@
     <mergeCell ref="O53:Q54"/>
     <mergeCell ref="R53:T54"/>
     <mergeCell ref="U53:U54"/>
-    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:H56"/>
+    <mergeCell ref="I55:K56"/>
+    <mergeCell ref="L55:N56"/>
+    <mergeCell ref="O55:Q56"/>
+    <mergeCell ref="R55:T56"/>
+    <mergeCell ref="U55:U56"/>
     <mergeCell ref="U37:U38"/>
     <mergeCell ref="U39:U40"/>
     <mergeCell ref="U41:U42"/>
@@ -4660,6 +4881,8 @@
     <mergeCell ref="U47:U48"/>
     <mergeCell ref="U49:U50"/>
     <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V53:X54"/>
+    <mergeCell ref="V35:X36"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="U13:U14"/>
     <mergeCell ref="U15:U16"/>
@@ -4698,7 +4921,6 @@
     <mergeCell ref="O47:Q48"/>
     <mergeCell ref="R47:T48"/>
     <mergeCell ref="V47:X48"/>
-    <mergeCell ref="O33:Q34"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
@@ -4714,10 +4936,17 @@
     <mergeCell ref="L35:N36"/>
     <mergeCell ref="O35:Q36"/>
     <mergeCell ref="R35:T36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="R39:T40"/>
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="L19:N20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E25:H26"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="O23:Q24"/>
     <mergeCell ref="R23:T24"/>
     <mergeCell ref="V23:X24"/>
@@ -4728,6 +4957,12 @@
     <mergeCell ref="O25:Q26"/>
     <mergeCell ref="R25:T26"/>
     <mergeCell ref="V25:X26"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="O31:Q32"/>
     <mergeCell ref="R31:T32"/>
     <mergeCell ref="V31:X32"/>
@@ -4738,15 +4973,10 @@
     <mergeCell ref="V29:X30"/>
     <mergeCell ref="R33:T34"/>
     <mergeCell ref="V33:X34"/>
-    <mergeCell ref="E31:H32"/>
-    <mergeCell ref="E33:H34"/>
-    <mergeCell ref="E29:H30"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E7:H8"/>
-    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="O33:Q34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="U33:U34"/>
     <mergeCell ref="E15:H16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="A7:A8"/>
@@ -4756,23 +4986,9 @@
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:H24"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="E19:H20"/>
-    <mergeCell ref="I19:K20"/>
-    <mergeCell ref="L19:N20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E25:H26"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="C27:C28"/>
@@ -4788,6 +5004,15 @@
     <mergeCell ref="L31:N32"/>
     <mergeCell ref="I33:K34"/>
     <mergeCell ref="L33:N34"/>
+    <mergeCell ref="E31:H32"/>
+    <mergeCell ref="E33:H34"/>
+    <mergeCell ref="E29:H30"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="E9:H10"/>
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="I3:N3"/>
@@ -4856,7 +5081,6 @@
     <mergeCell ref="I37:K38"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="O39:Q40"/>
-    <mergeCell ref="R39:T40"/>
     <mergeCell ref="V39:X40"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="C43:C44"/>
@@ -4872,12 +5096,12 @@
     <mergeCell ref="D39:D40"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:U11 U13:U1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U11 U13:U1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4887,6 +5111,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484E10F7-ADFA-4808-B7B2-DE7DF0FA6782}">
+  <sheetPr>
+    <tabColor rgb="FFFFD1D1"/>
+  </sheetPr>
   <dimension ref="A2:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4901,506 +5128,507 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="14.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="28" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="31"/>
+      <c r="O2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="56"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:22" ht="14.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="30" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="30" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="57">
+      <c r="N3" s="33"/>
+      <c r="O3" s="56">
         <v>45117</v>
       </c>
-      <c r="P3" s="55"/>
+      <c r="P3" s="57"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="32" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="36" t="s">
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="32" t="s">
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="33" t="s">
+      <c r="Q5" s="34"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="32" t="s">
+      <c r="T5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
     </row>
     <row r="7" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="5" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="13" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="N7" s="13"/>
+      <c r="N7" s="12"/>
       <c r="O7" s="15"/>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13" t="s">
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="8"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" ht="132.75" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
       <c r="O8" s="15"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="9"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="13" t="s">
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="N9" s="13"/>
+      <c r="N9" s="12"/>
       <c r="O9" s="15"/>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13" t="s">
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22" ht="132.75" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
       <c r="O10" s="15"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="9"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="15"/>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13" t="s">
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="8"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="5"/>
     </row>
     <row r="12" spans="1:22" ht="132.75" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
       <c r="O12" s="15"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="9"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="4" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
       <c r="O13" s="15"/>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13" t="s">
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="8"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="5"/>
     </row>
     <row r="14" spans="1:22" ht="132.75" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
       <c r="O14" s="15"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="9"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="4" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
       <c r="O15" s="15"/>
-      <c r="P15" s="13" t="s">
+      <c r="P15" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13" t="s">
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="8"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="5"/>
     </row>
     <row r="16" spans="1:22" ht="132.75" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
       <c r="O16" s="15"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="9"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="7"/>
     </row>
     <row r="17" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="4" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
       <c r="O17" s="15"/>
-      <c r="P17" s="13" t="s">
+      <c r="P17" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13" t="s">
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="8"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="5"/>
     </row>
     <row r="18" spans="1:22" ht="132.75" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
       <c r="O18" s="15"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="9"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="P17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:V18"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:F18"/>
     <mergeCell ref="G17:I18"/>
     <mergeCell ref="J17:L18"/>
+    <mergeCell ref="M15:O16"/>
+    <mergeCell ref="P15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:V16"/>
+    <mergeCell ref="P17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:V18"/>
     <mergeCell ref="M17:O18"/>
-    <mergeCell ref="T13:V14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:F16"/>
     <mergeCell ref="G15:I16"/>
     <mergeCell ref="J15:L16"/>
-    <mergeCell ref="M15:O16"/>
-    <mergeCell ref="P15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:V16"/>
+    <mergeCell ref="M11:O12"/>
+    <mergeCell ref="P11:R12"/>
     <mergeCell ref="S11:S12"/>
     <mergeCell ref="T11:V12"/>
     <mergeCell ref="A13:A14"/>
@@ -5411,18 +5639,12 @@
     <mergeCell ref="M13:O14"/>
     <mergeCell ref="P13:R14"/>
     <mergeCell ref="S13:S14"/>
-    <mergeCell ref="P9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:V10"/>
+    <mergeCell ref="T13:V14"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:F12"/>
     <mergeCell ref="G11:I12"/>
     <mergeCell ref="J11:L12"/>
-    <mergeCell ref="M11:O12"/>
-    <mergeCell ref="P11:R12"/>
-    <mergeCell ref="M7:O8"/>
-    <mergeCell ref="P7:R8"/>
     <mergeCell ref="S7:S8"/>
     <mergeCell ref="T7:V8"/>
     <mergeCell ref="A9:A10"/>
@@ -5431,6 +5653,9 @@
     <mergeCell ref="G9:I10"/>
     <mergeCell ref="J9:L10"/>
     <mergeCell ref="M9:O10"/>
+    <mergeCell ref="P9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:V10"/>
     <mergeCell ref="M5:O6"/>
     <mergeCell ref="P5:R6"/>
     <mergeCell ref="S5:S6"/>
@@ -5445,6 +5670,8 @@
     <mergeCell ref="C5:F6"/>
     <mergeCell ref="G5:I6"/>
     <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M7:O8"/>
+    <mergeCell ref="P7:R8"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:N2"/>
@@ -5454,11 +5681,1443 @@
     <mergeCell ref="O3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="S5:S18">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S18">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E203A3CB-C7ED-40A5-A588-09C910E9A71D}">
+  <sheetPr>
+    <tabColor rgb="FFBDFFF6"/>
+  </sheetPr>
+  <dimension ref="A1:X28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="14" max="14" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25"/>
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="14.25">
+      <c r="C2" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="55"/>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="14.25">
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="56">
+        <v>45120</v>
+      </c>
+      <c r="R3" s="57"/>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="14.25"/>
+    <row r="5" spans="1:24" s="1" customFormat="1" ht="14.25">
+      <c r="A5" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="34"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+    </row>
+    <row r="6" spans="1:24" s="1" customFormat="1" ht="14.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+    </row>
+    <row r="7" spans="1:24" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A7" s="45">
+        <v>1</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+    </row>
+    <row r="8" spans="1:24" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="1:24" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A9" s="45">
+        <v>2</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+    </row>
+    <row r="10" spans="1:24" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="45"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+    </row>
+    <row r="11" spans="1:24" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A11" s="45">
+        <v>3</v>
+      </c>
+      <c r="B11" s="69"/>
+      <c r="C11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="1:24" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="45"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="1:24" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A13" s="45">
+        <v>4</v>
+      </c>
+      <c r="B13" s="69"/>
+      <c r="C13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+    </row>
+    <row r="14" spans="1:24" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="1:24" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A15" s="45">
+        <v>5</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="1:24" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="45"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+    </row>
+    <row r="17" spans="1:24" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A17" s="45">
+        <v>6</v>
+      </c>
+      <c r="B17" s="69"/>
+      <c r="C17" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+    </row>
+    <row r="18" spans="1:24" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="45"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+    </row>
+    <row r="19" spans="1:24" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A19" s="45">
+        <v>7</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+    </row>
+    <row r="20" spans="1:24" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="45"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+    </row>
+    <row r="21" spans="1:24" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A21" s="45">
+        <v>8</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+    </row>
+    <row r="22" spans="1:24" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A22" s="45"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+    </row>
+    <row r="23" spans="1:24" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A23" s="45">
+        <v>9</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+    </row>
+    <row r="24" spans="1:24" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="45"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+    </row>
+    <row r="25" spans="1:24" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A25" s="45">
+        <v>10</v>
+      </c>
+      <c r="B25" s="69"/>
+      <c r="C25" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+    </row>
+    <row r="26" spans="1:24" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A26" s="45"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+    </row>
+    <row r="27" spans="1:24" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A27" s="45">
+        <v>11</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+    </row>
+    <row r="28" spans="1:24" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="45"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="129">
+    <mergeCell ref="L27:N28"/>
+    <mergeCell ref="O27:Q28"/>
+    <mergeCell ref="R27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:X28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:H28"/>
+    <mergeCell ref="I27:K28"/>
+    <mergeCell ref="B7:B28"/>
+    <mergeCell ref="L25:N26"/>
+    <mergeCell ref="O25:Q26"/>
+    <mergeCell ref="R25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:X26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:H26"/>
+    <mergeCell ref="I25:K26"/>
+    <mergeCell ref="L23:N24"/>
+    <mergeCell ref="O23:Q24"/>
+    <mergeCell ref="R23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:X24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:H24"/>
+    <mergeCell ref="I23:K24"/>
+    <mergeCell ref="L21:N22"/>
+    <mergeCell ref="O21:Q22"/>
+    <mergeCell ref="R21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:X22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:H22"/>
+    <mergeCell ref="I21:K22"/>
+    <mergeCell ref="L19:N20"/>
+    <mergeCell ref="O19:Q20"/>
+    <mergeCell ref="R19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:X20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:H20"/>
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="L17:N18"/>
+    <mergeCell ref="O17:Q18"/>
+    <mergeCell ref="R17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:X18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="L15:N16"/>
+    <mergeCell ref="O15:Q16"/>
+    <mergeCell ref="R15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:X16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="I7:K8"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="L7:N8"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="R7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:X8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="I9:K10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:H12"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="I13:K14"/>
+    <mergeCell ref="O13:Q14"/>
+    <mergeCell ref="R13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:X14"/>
+    <mergeCell ref="O11:Q12"/>
+    <mergeCell ref="R11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:X12"/>
+    <mergeCell ref="L13:N14"/>
+    <mergeCell ref="L11:N12"/>
+    <mergeCell ref="L9:N10"/>
+    <mergeCell ref="O9:Q10"/>
+    <mergeCell ref="R9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:X10"/>
+  </mergeCells>
+  <conditionalFormatting sqref="U1:U28">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U28">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="O15:Q16" r:id="rId1" display="yamamoto@yahoo.co.jp" xr:uid="{9F5E6CEC-2101-45B6-8286-E59275B00287}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2669556C-3A15-4124-B5A1-E891EAC85B96}">
+  <sheetPr>
+    <tabColor rgb="FFBDFFF6"/>
+  </sheetPr>
+  <dimension ref="A2:V13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="14.25">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="31"/>
+      <c r="O2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="55"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="14.25">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="33"/>
+      <c r="O3" s="56">
+        <v>45120</v>
+      </c>
+      <c r="P3" s="57"/>
+    </row>
+    <row r="6" spans="1:22" s="1" customFormat="1" ht="14.25">
+      <c r="A6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="34"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+    </row>
+    <row r="7" spans="1:22" s="1" customFormat="1" ht="14.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+    </row>
+    <row r="8" spans="1:22" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="45">
+        <v>1</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+    </row>
+    <row r="9" spans="1:22" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="45"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+    </row>
+    <row r="10" spans="1:22" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A10" s="45">
+        <v>2</v>
+      </c>
+      <c r="B10" s="71"/>
+      <c r="C10" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+    </row>
+    <row r="11" spans="1:22" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A11" s="45"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+    </row>
+    <row r="12" spans="1:22" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A12" s="58">
+        <v>3</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+    </row>
+    <row r="13" spans="1:22" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="58"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="M12:O13"/>
+    <mergeCell ref="P12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:V13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="J12:L13"/>
+    <mergeCell ref="C2:F3"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="J10:L11"/>
+    <mergeCell ref="M10:O11"/>
+    <mergeCell ref="P10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:V11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="J8:L9"/>
+    <mergeCell ref="M8:O9"/>
+    <mergeCell ref="P8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:V9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:F11"/>
+    <mergeCell ref="G10:I11"/>
+    <mergeCell ref="J6:L7"/>
+    <mergeCell ref="M6:O7"/>
+    <mergeCell ref="P6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:V7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="G6:I7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="S6:S13">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6:S13">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S3">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S18">
+  <conditionalFormatting sqref="S2:S3">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26725"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2074AFE5-A8B8-44A7-A0D7-7510E0C23F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68534D0B-13B4-4F88-89FC-98CA4608E591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト-アカウント登録" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,9 @@
     <sheet name="結合テスト-アカウント操作" sheetId="5" r:id="rId6"/>
     <sheet name="単体テスト-ログイン" sheetId="7" r:id="rId7"/>
     <sheet name="結合テスト-ログイン" sheetId="8" r:id="rId8"/>
+    <sheet name="単体テスト-アカウント検索" sheetId="9" r:id="rId9"/>
+    <sheet name="結合テスト-アカウント検索" sheetId="10" r:id="rId10"/>
+    <sheet name="総合テスト" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="654">
   <si>
     <t>アカウント登録画面のチェックテスト</t>
   </si>
@@ -1534,6 +1537,9 @@
     <t>対象のアカウントの削除フラグが「有効」から「無効」に代わっている。</t>
   </si>
   <si>
+    <t>ログイン画面のチェックテスト</t>
+  </si>
+  <si>
     <t>ログイン画面</t>
   </si>
   <si>
@@ -1874,24 +1880,441 @@
 TOP画面</t>
   </si>
   <si>
-    <t>外部リンクから直接TOP画面のURLを入力し、エラーメッセージが出るか確認する。</t>
-  </si>
-  <si>
-    <t>.htacessファイルを同ディレクトリ内に作成する</t>
-  </si>
-  <si>
     <t>http://localhost/top/index.html</t>
   </si>
   <si>
-    <t>Forbidden
-You don't have permission to access this resource.のエラー文が表示される。</t>
+    <t>アカウント検索画面のチェックテスト</t>
+  </si>
+  <si>
+    <t>検索欄の名前(姓)に姓の一文字部分だけを入力し、「検索」ボタン押下後入力した文字を含む姓で登録したアカウントを検索結果一覧に表示させる。</t>
+  </si>
+  <si>
+    <t>名前(姓)に「藤」が含まれるアカウントが登録済みである</t>
+  </si>
+  <si>
+    <t>1.検索欄の名前(姓)に一文字を入力する
+2.検索欄右下の「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>藤</t>
+  </si>
+  <si>
+    <t>検索結果一覧に「藤」の一文字を含む名前(姓)で登録されたアカウントが表示される。</t>
+  </si>
+  <si>
+    <t>検索欄の名前(名)に名の一文字部分だけを入力し、「検索」ボタン押下後入力した文字を含む名で登録したアカウントを検索結果一覧に表示させる。</t>
+  </si>
+  <si>
+    <t>名前(名)に「人」が含まれるアカウントが登録済みである</t>
+  </si>
+  <si>
+    <t>1.検索欄の名前(名)に一文字を入力する
+2.検索欄右下の「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>検索結果一覧に「人」の一文字を含む名前(名)で登録されたアカウントが表示される。</t>
+  </si>
+  <si>
+    <t>検索欄のカナ(姓)に読み仮名の一部分だけを入力し、「検索」ボタン押下後入力した文字を含む読み仮名で登録したアカウントを検索結果一覧に表示させる。</t>
+  </si>
+  <si>
+    <t>カナ(姓)に「イ」が含まれるアカウントが登録済みである</t>
+  </si>
+  <si>
+    <t>1.検索欄のカナ(姓)に一文字を入力する
+2.検索欄右下の「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>イ</t>
+  </si>
+  <si>
+    <t>検索結果一覧に「イ」の一文字を含むカナ(姓)で登録されたアカウントが表示される。</t>
+  </si>
+  <si>
+    <t>検索欄のカナ(名)に読み仮名の一部分だけを入力し、「検索」ボタン押下後入力した文字を含む読み仮名で登録したアカウントを検索結果一覧に表示させる。</t>
+  </si>
+  <si>
+    <t>カナ(名)に「カ」が含まれるアカウントが登録済みである</t>
+  </si>
+  <si>
+    <t>1.検索欄のカナ(名)に一文字を入力する
+2.検索欄右下の「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>カ</t>
+  </si>
+  <si>
+    <t>検索結果一覧に「カ」の一文字を含むカナ(名)で登録されたアカウントが表示される。</t>
+  </si>
+  <si>
+    <t>検索欄のメールアドレスにメールアドレスの一部分だけを入力し、「検索」ボタン押下後入力した文字を含むでメールアドレスで登録したアカウントを検索結果一覧に表示させる。</t>
+  </si>
+  <si>
+    <t>メールアドレスに「com」が含まれるアカウントが登録済みである</t>
+  </si>
+  <si>
+    <t>1.検索欄のメールアドレスに文字を入力する
+2.検索欄右下の「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>検索結果一覧に「com」の文字を含むメールアドレスで登録されたアカウントが表示される。</t>
+  </si>
+  <si>
+    <t>検索欄の性別を選択し、「検索」ボタン押下後選択した性別で登録したアカウントを一覧に表示させる。</t>
+  </si>
+  <si>
+    <t>1.検索欄の性別にて男女どちらかを選択
+2.検索欄右下の「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>検索結果一覧に性別を女で登録したアカウントが表示される。</t>
+  </si>
+  <si>
+    <t>デフォルトではどちらもチェックマークはついていない</t>
+  </si>
+  <si>
+    <t>検索欄のアカウント権限を選択し、「検索」ボタン押下後選択したアカウント権限で登録したアカウントを一覧に表示させる。</t>
+  </si>
+  <si>
+    <t>1.検索欄のアカウント権限にて「一般」「管理者」どちらかを選択
+2.検索欄右下の「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>検索結果一覧にアカウント権限を「管理者」で登録したアカウントが表示される。</t>
+  </si>
+  <si>
+    <t>デフォルトでは空白になっている</t>
+  </si>
+  <si>
+    <t>全件表示</t>
+  </si>
+  <si>
+    <t>検索欄にて全ての項目を未入力及び未選択にして、「検索」ボタン押下後登録されたすべてのアカウント表示させる。</t>
+  </si>
+  <si>
+    <t>1.検索欄の項目をすべて未入力及び未選択にする
+2.検索欄右下の「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>検索結果一覧に登録したアカウントが全件で表示される。</t>
+  </si>
+  <si>
+    <t>絞り込み検索</t>
+  </si>
+  <si>
+    <t>検索欄にて複数の項目で入力と選択をし、「検索」ボタン押下後、入力と選択をした項目に該当するアカウント表示させる。</t>
+  </si>
+  <si>
+    <t>1.検索欄の複数の項目で入力と選択をする
+2.検索欄右下の「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>名前(姓):田
+性別:男
+アカウント権限:管理者</t>
+  </si>
+  <si>
+    <t>検索結果一覧に入力及び選択した項目に基づいて登録されたアカウントが表示される。</t>
+  </si>
+  <si>
+    <t>アカウント検索のチェックテスト</t>
+  </si>
+  <si>
+    <t>他サイト内
+↓
+アカウント一覧</t>
+  </si>
+  <si>
+    <t>検索欄</t>
+  </si>
+  <si>
+    <t>他サイト内からアカウント一覧画面へ遷移後、検索欄の全項目がデフォルトで空欄及び未選択状態になっているかを確認する。</t>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面を除く他サイト内からナビゲーションバーのアカウント一覧を押下する</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面遷移後、検索欄の項目が全て空欄及び未選択の状態で表示される。</t>
+  </si>
+  <si>
+    <t>検索結果一覧</t>
+  </si>
+  <si>
+    <t>他サイト内からアカウント一覧画面へ遷移後、アカウント検索結果一覧が表示されていないか確認する。</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面遷移後、アカウント検索結果一覧は表示されていない。</t>
+  </si>
+  <si>
+    <t>アカウント一覧
+↓
+アカウント削除画面</t>
+  </si>
+  <si>
+    <t>アカウント削除画面</t>
+  </si>
+  <si>
+    <t>検索欄でアカウント検索後、検索結果一覧に表示されたアカウントの「削除」ボタンを押下してアカウント削除画面へ遷移するか確認する。</t>
+  </si>
+  <si>
+    <t>1.検索欄よりアカウントを検索する
+2.表示したアカウントの「削除」ボタンを押下する</t>
+  </si>
+  <si>
+    <t>該当するアカウントのアカウント削除画面へ遷移する。</t>
+  </si>
+  <si>
+    <t>アカウント一覧
+↓
+アカウント更新画面</t>
+  </si>
+  <si>
+    <t>検索欄でアカウント検索後、検索結果一覧に表示されたアカウントの「更新」ボタンを押下してアカウント更新画面へ遷移するか確認する。</t>
+  </si>
+  <si>
+    <t>1.検索欄よりアカウントを検索する
+2.表示したアカウントの「更新」ボタンを押下する</t>
+  </si>
+  <si>
+    <t>該当するアカウントのアカウント更新画面へ遷移する。</t>
+  </si>
+  <si>
+    <t>総合テスト</t>
+  </si>
+  <si>
+    <t>ログイン画面にて登録済みのアカウントのメールアドレスとパスワードを入力し、ログインが可能であるか。</t>
+  </si>
+  <si>
+    <t>1.ログイン画面にて登録済みのアカウントのメールアドレスとパスワードをそれぞれ入力する。
+2.「ログイン」ボタンを押下。</t>
+  </si>
+  <si>
+    <t>ログイン成功。TOPページへ遷移する。</t>
+  </si>
+  <si>
+    <t>ログイン画面にて登録していないメールアドレスとパスワードを入力した結果、ログインが弾かれるか。</t>
+  </si>
+  <si>
+    <t>1.ログイン画面にて登録されていないアカウントのメールアドレスとパスワードをそれぞれ入力する。
+2.「ログイン」ボタンを押下。</t>
+  </si>
+  <si>
+    <t>ログイン失敗。入力項目下に「メールアドレスが違います」「パスワードが違います」のエラー文が表示。</t>
+  </si>
+  <si>
+    <t>ログイン画面にてメールアドレス欄またはパスワード欄にて入力していない箇所があった場合、ログインが弾かれるか。</t>
+  </si>
+  <si>
+    <t>登録済みのアカウントでログインを試みる</t>
+  </si>
+  <si>
+    <t>1.ログイン画面にて登録されているアカウントのメールアドレスとパスワードのどちらかを入力し、片方を空白にする。
+2.「ログイン」ボタンを押下。</t>
+  </si>
+  <si>
+    <t>メールアドレス欄に入力していた場合、パスワード欄下に「パスワードが空白です」のエラー文が表示、パスワード欄に入力していた場合、メールアドレス欄下に「メールアドレスが空白です」のエラー文の表示及びパスワード欄下に「パスワードが違います」のエラー文の表示がされる。</t>
+  </si>
+  <si>
+    <t>TOP画面</t>
+  </si>
+  <si>
+    <t>アカウント権限の「一般」のユーザー画面でログインした後、「アカウント登録」「アカウント一覧」を除くナビゲーションバーが表示されるか。</t>
+  </si>
+  <si>
+    <t>アカウント権限「一般」のユーザーでログイン</t>
+  </si>
+  <si>
+    <t>ログイン後、ナビゲーションバーには「アカウント登録」「アカウント一覧」の項目が表示されない。</t>
+  </si>
+  <si>
+    <t>アカウント権限の「管理者」のユーザー画面でログインした後、「アカウント登録」「アカウント一覧」を含むナビゲーションバーが表示されるか。</t>
+  </si>
+  <si>
+    <t>アカウント権限「管理者」のユーザーでログイン</t>
+  </si>
+  <si>
+    <t>ログイン後、ナビゲーションバーには「アカウント登録」「アカウント一覧」を含むすべての項目が表示される。</t>
+  </si>
+  <si>
+    <t>入力(選択)</t>
+  </si>
+  <si>
+    <t>アカウント登録に必要な全項目入力及び選択をして登録後、登録したアカウントが実際登録されているか。</t>
+  </si>
+  <si>
+    <t>1.アカウント登録で新規のアカウントを登録する
+2.DB上で登録したアカウントが追加されているか確認</t>
+  </si>
+  <si>
+    <t>DBにて新しいアカウントの生成を確認。</t>
+  </si>
+  <si>
+    <t>アカウント登録に必要な全入力(選択)項目の中で最低でも一つでも空白があった場合、未入力欄(未選択欄)の下にエラーメッセージが表示されるか。</t>
+  </si>
+  <si>
+    <t>1.アカウント登録で空白の箇所を最低1つ作る
+2.「確認する」ボタンを押下</t>
+  </si>
+  <si>
+    <t>それぞれのフォームに応じたエラー文がフォーム下に表示される。</t>
+  </si>
+  <si>
+    <t>性別とアカウント権限は「男」と「一般」で既に選択済み</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面から「前に戻る」ボタン押下後、入力していた情報が保持されているか。</t>
+  </si>
+  <si>
+    <t>1.アカウント登録画面より「確認する」ボタンを押下し、アカウント登録確認画面へ遷移
+2.「前に戻る」ボタンを押下</t>
+  </si>
+  <si>
+    <t>アカウント登録画面で登録していた値がそのまま保持された状態でアカウント画面へ遷移する。</t>
+  </si>
+  <si>
+    <t>アカウント検索</t>
+  </si>
+  <si>
+    <t>アカウント一覧にて検索欄の項目を未入力及び未選択の状態で検索ボタンを押下後、登録アカウントが全件表示されているか。</t>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へ遷移
+2.検索欄の全項目を未入力及び未選択の状態にして「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>ID降順に従って登録アカウントが全件表示。</t>
+  </si>
+  <si>
+    <t>性別とアカウント権限はデフォルトは未選択</t>
+  </si>
+  <si>
+    <t>検索欄の入力型フォームにて特定の文字を入力し、それを含むアカウントが検索結果として表示されるか。</t>
+  </si>
+  <si>
+    <t>名前(姓)、名前(名)、カナ(姓)、カナ(名)、メールアドレスのどれかで入力</t>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面の検索欄の入力型フォームにて特定の文字を入力する
+2.「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>名前(姓)：田</t>
+  </si>
+  <si>
+    <t>名前(姓)に「田」の一文字を含むアカウントが一覧に表示。</t>
+  </si>
+  <si>
+    <t>検索欄の選択型フォームにて選択した項目で登録されたアカウントが検索結果として表示されるか。</t>
+  </si>
+  <si>
+    <t>性別、アカウント権限のどれかを選択</t>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面の検索欄の選択型フォームにてチェック及び選択をする。
+2.「検索」ボタンを押下</t>
+  </si>
+  <si>
+    <t>性別:男</t>
+  </si>
+  <si>
+    <t>性別に「男」を選択したアカウントが一覧に表示。</t>
+  </si>
+  <si>
+    <t>アカウント更新</t>
+  </si>
+  <si>
+    <t>変更</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面より対象のアカウントの更新を行い、変更部分の情報がアカウント一覧画面上及びDB上に反映されるか。
+また更新日時が更新されるか</t>
+  </si>
+  <si>
+    <t>1.アカウント一覧にて対象のアカウントの「更新」ボタンを押下
+2.アカウント更新画面にて更新する箇所を変更し、更新完了させる</t>
+  </si>
+  <si>
+    <t>対象のアカウント権限を「一般」から「管理者」へ変更</t>
+  </si>
+  <si>
+    <t>DB及びアカウント一覧にて対象アカウントの情報更新を確認。
+また更新時間の変更も確認。</t>
+  </si>
+  <si>
+    <t>アカウント更新確認画面から「前に戻る」ボタン押下後、入力していた情報が保持されているか。</t>
+  </si>
+  <si>
+    <t>1.アカウント更新画面より「確認する」ボタンを押下し、アカウント登録確認画面へ遷移
+2.「前に戻る」ボタンを押下</t>
+  </si>
+  <si>
+    <t>アカウント更新画面へ遷移、フォームに入力していた情報も保持される。</t>
+  </si>
+  <si>
+    <t>アカウント削除</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面より対象のアカウントの削除を行い、理論削除により削除フラグが「無効」に変更されるか
+またDB上で削除フラグが変更されるか</t>
+  </si>
+  <si>
+    <t>1.アカウント一覧にて対象のアカウントの「削除」ボタンを押下
+2.アカウントの削除を完了させる</t>
+  </si>
+  <si>
+    <t>DB及びアカウント一覧にて対象アカウントの削除フラグの更新を確認。</t>
+  </si>
+  <si>
+    <t>アカウント削除確認画面から「前に戻る」ボタン押下後、再度対象アカウントの情報が表示されたアカウント削除画面へ遷移するか。</t>
+  </si>
+  <si>
+    <t>1.アカウント削除画面より「確認する」ボタンを押下し、アカウント削除確認画面へ遷移
+2.「前に戻る」ボタンを押下</t>
+  </si>
+  <si>
+    <t>アカウント削除画面へ遷移する。</t>
+  </si>
+  <si>
+    <t>外部からのアクセス</t>
+  </si>
+  <si>
+    <t>アクセス</t>
+  </si>
+  <si>
+    <t>ログインを介さずにサイト内にアクセスをした場合、ログイン画面へ自動的に遷移されるか。</t>
+  </si>
+  <si>
+    <t>1.外部サイトより直接サイト内URLを入力する
+2.Enterキー押下</t>
+  </si>
+  <si>
+    <t>他サイト内ページにアクセスしようとした際、ログイン画面へ遷移する。</t>
+  </si>
+  <si>
+    <t>「一般」ユーザーのアクセス</t>
+  </si>
+  <si>
+    <t>「一般」ユーザーでログイン後、「管理者」のみしかアクセスできないサイト内ページのURLにアクセスを試みた場合、エラー文が表示されるか。</t>
+  </si>
+  <si>
+    <t>1.「一般」ユーザーでログイン後、直接サイト内URLを入力する
+2.Enterキー押下</t>
+  </si>
+  <si>
+    <t>「管理者」でしか表示できないページにて「不正なアクセスを検出しました」のエラー文が表示される。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1938,8 +2361,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2021,6 +2449,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD1D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2207,7 +2641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2510,12 +2944,159 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2740,10 +3321,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFE9FFBD"/>
+      <color rgb="FFFFD1D1"/>
+      <color rgb="FFF4DBFF"/>
       <color rgb="FFF3FFE0"/>
-      <color rgb="FFF4DBFF"/>
       <color rgb="FFBDFFF6"/>
-      <color rgb="FFFFD1D1"/>
       <color rgb="FFFFA8A8"/>
     </mruColors>
   </colors>
@@ -3060,7 +3642,7 @@
   </sheetPr>
   <dimension ref="A2:X82"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="L78" workbookViewId="0">
       <selection activeCell="L67" sqref="L67:N68"/>
     </sheetView>
   </sheetViews>
@@ -6241,12 +6823,1963 @@
     <mergeCell ref="D21:D22"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:U11 U13:U1048576">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U11 U13:U1048576">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9C4E21-5F88-4B34-9216-6704313E241E}">
+  <sheetPr>
+    <tabColor rgb="FFF4DBFF"/>
+  </sheetPr>
+  <dimension ref="A1:X13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="14" max="14" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
+      <c r="C1" s="40" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="56"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="14.25">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="57">
+        <v>45134</v>
+      </c>
+      <c r="R2" s="58"/>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="14.25"/>
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="14.25">
+      <c r="A4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="31"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="31"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+    </row>
+    <row r="5" spans="1:24" s="1" customFormat="1" ht="14.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+    </row>
+    <row r="6" spans="1:24" s="2" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A6" s="45">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+    </row>
+    <row r="7" spans="1:24" s="2" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A7" s="45"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+    </row>
+    <row r="8" spans="1:24" s="2" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A8" s="45">
+        <v>2</v>
+      </c>
+      <c r="B8" s="86"/>
+      <c r="C8" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+    </row>
+    <row r="9" spans="1:24" s="2" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A9" s="106"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+    </row>
+    <row r="10" spans="1:24" s="2" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A10" s="65">
+        <v>3</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+    </row>
+    <row r="11" spans="1:24" s="2" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A11" s="87"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+    </row>
+    <row r="12" spans="1:24" s="2" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A12" s="108">
+        <v>4</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+    </row>
+    <row r="13" spans="1:24" s="2" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A13" s="108"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="L12:N13"/>
+    <mergeCell ref="O12:Q13"/>
+    <mergeCell ref="R12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:X13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="I12:K13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="V8:X9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="I10:K11"/>
+    <mergeCell ref="L10:N11"/>
+    <mergeCell ref="O10:Q11"/>
+    <mergeCell ref="R10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:X11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="I8:K9"/>
+    <mergeCell ref="L8:N9"/>
+    <mergeCell ref="O8:Q9"/>
+    <mergeCell ref="R8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:H9"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="V4:X5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="L6:N7"/>
+    <mergeCell ref="O6:Q7"/>
+    <mergeCell ref="R6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:X7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="U1:U13">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U13">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCAA89C-4A95-47CC-9FDA-AA295534865B}">
+  <sheetPr>
+    <tabColor rgb="FFE9FFBD"/>
+  </sheetPr>
+  <dimension ref="A1:W40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G27" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31:S32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="13" max="13" width="27.125" customWidth="1"/>
+    <col min="19" max="19" width="36.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="28"/>
+      <c r="P1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" ht="14.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="30"/>
+      <c r="P2" s="57">
+        <v>45138</v>
+      </c>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="5" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+    </row>
+    <row r="6" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+    </row>
+    <row r="7" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A7" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A8" s="63"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A9" s="74" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A10" s="63"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A11" s="63">
+        <v>3</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A12" s="63"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A13" s="74">
+        <v>4</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>596</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A14" s="63"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A15" s="74">
+        <v>5</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A16" s="63"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A17" s="74">
+        <v>6</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A18" s="63"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A19" s="63">
+        <v>7</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A20" s="63"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+    </row>
+    <row r="21" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A21" s="63">
+        <v>8</v>
+      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+    </row>
+    <row r="22" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A22" s="63"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+    </row>
+    <row r="23" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A23" s="74">
+        <v>9</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>614</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+    </row>
+    <row r="24" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A24" s="63"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+    </row>
+    <row r="25" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A25" s="63">
+        <v>10</v>
+      </c>
+      <c r="B25" s="61"/>
+      <c r="C25" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+    </row>
+    <row r="26" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A26" s="63"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+    </row>
+    <row r="27" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A27" s="63">
+        <v>11</v>
+      </c>
+      <c r="B27" s="61"/>
+      <c r="C27" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+    </row>
+    <row r="28" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A28" s="63"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+    </row>
+    <row r="29" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A29" s="74">
+        <v>12</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>629</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+    </row>
+    <row r="30" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A30" s="63"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+    </row>
+    <row r="31" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A31" s="63">
+        <v>13</v>
+      </c>
+      <c r="B31" s="61"/>
+      <c r="C31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+    </row>
+    <row r="32" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A32" s="63"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+    </row>
+    <row r="33" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A33" s="74">
+        <v>14</v>
+      </c>
+      <c r="B33" s="61" t="s">
+        <v>638</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+    </row>
+    <row r="34" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A34" s="63"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+    </row>
+    <row r="35" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A35" s="74">
+        <v>15</v>
+      </c>
+      <c r="B35" s="61"/>
+      <c r="C35" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+    </row>
+    <row r="36" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A36" s="63"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+    </row>
+    <row r="37" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A37" s="74">
+        <v>16</v>
+      </c>
+      <c r="B37" s="109" t="s">
+        <v>645</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+    </row>
+    <row r="38" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A38" s="63"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+    </row>
+    <row r="39" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A39" s="74">
+        <v>17</v>
+      </c>
+      <c r="B39" s="109" t="s">
+        <v>650</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+    </row>
+    <row r="40" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A40" s="63"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="178">
+    <mergeCell ref="N17:P18"/>
+    <mergeCell ref="Q17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:W18"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="U33:W34"/>
+    <mergeCell ref="N29:P30"/>
+    <mergeCell ref="Q29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:W30"/>
+    <mergeCell ref="N23:P24"/>
+    <mergeCell ref="Q23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="N33:P34"/>
+    <mergeCell ref="Q33:S34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:G36"/>
+    <mergeCell ref="H35:J36"/>
+    <mergeCell ref="K35:M36"/>
+    <mergeCell ref="N35:P36"/>
+    <mergeCell ref="Q35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:W36"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:J34"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:G32"/>
+    <mergeCell ref="H31:J32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="K31:M32"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="N13:P14"/>
+    <mergeCell ref="Q13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:W14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:G16"/>
+    <mergeCell ref="H15:J16"/>
+    <mergeCell ref="K15:M16"/>
+    <mergeCell ref="N15:P16"/>
+    <mergeCell ref="Q15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:W16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="H13:J14"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:W6"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="K7:M8"/>
+    <mergeCell ref="N7:P8"/>
+    <mergeCell ref="Q7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="H9:J10"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="N9:P10"/>
+    <mergeCell ref="Q9:S10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:G8"/>
+    <mergeCell ref="K5:M6"/>
+    <mergeCell ref="N5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="U11:W12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:G12"/>
+    <mergeCell ref="H11:J12"/>
+    <mergeCell ref="K11:M12"/>
+    <mergeCell ref="N11:P12"/>
+    <mergeCell ref="Q11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:W10"/>
+    <mergeCell ref="U7:W8"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:G22"/>
+    <mergeCell ref="H21:J22"/>
+    <mergeCell ref="K21:M22"/>
+    <mergeCell ref="N21:P22"/>
+    <mergeCell ref="Q21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:W22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="K17:M18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:G20"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="K19:M20"/>
+    <mergeCell ref="N19:P20"/>
+    <mergeCell ref="Q19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:W20"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:G26"/>
+    <mergeCell ref="H25:J26"/>
+    <mergeCell ref="K25:M26"/>
+    <mergeCell ref="N25:P26"/>
+    <mergeCell ref="Q25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:W26"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:G28"/>
+    <mergeCell ref="H27:J28"/>
+    <mergeCell ref="K27:M28"/>
+    <mergeCell ref="N27:P28"/>
+    <mergeCell ref="Q27:S28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:G24"/>
+    <mergeCell ref="H23:J24"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="U23:W24"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:W28"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:G38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="K37:M38"/>
+    <mergeCell ref="N37:P38"/>
+    <mergeCell ref="Q37:S38"/>
+    <mergeCell ref="T37:T38"/>
+    <mergeCell ref="U37:W38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="N31:P32"/>
+    <mergeCell ref="Q31:S32"/>
+    <mergeCell ref="U31:W32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="K29:M30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="U39:W40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:G40"/>
+    <mergeCell ref="H39:J40"/>
+    <mergeCell ref="K39:M40"/>
+    <mergeCell ref="N39:P40"/>
+    <mergeCell ref="Q39:S40"/>
+    <mergeCell ref="T39:T40"/>
+  </mergeCells>
+  <conditionalFormatting sqref="T1:T2">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T2">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T11 T15:T19 T13 T23:T25 T33:T40 T27:T31">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T11 T15:T19 T13 T23:T25 T33:T40 T27:T31">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6261,7 +8794,7 @@
   </sheetPr>
   <dimension ref="A2:V18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
@@ -6826,12 +9359,12 @@
     <mergeCell ref="O3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="S5:S18">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S18">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6846,7 +9379,7 @@
   </sheetPr>
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E27" sqref="E27:H28"/>
     </sheetView>
   </sheetViews>
@@ -7882,12 +10415,12 @@
     <mergeCell ref="E11:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:U28">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U28">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8248,22 +10781,22 @@
     <mergeCell ref="G6:I7"/>
   </mergeCells>
   <conditionalFormatting sqref="S6:S13">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S13">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S3">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S3">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8278,7 +10811,7 @@
   </sheetPr>
   <dimension ref="A2:X93"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0"/>
+    <sheetView topLeftCell="A72" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -11601,22 +14134,22 @@
     <mergeCell ref="I82:K83"/>
   </mergeCells>
   <conditionalFormatting sqref="U2:U3">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U3">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U12 U14:U87">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U12 U14:U87">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11635,8 +14168,8 @@
   </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A50" sqref="A2:XFD50"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13548,12 +16081,12 @@
     <mergeCell ref="R49:T50"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:U50">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U50">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13566,10 +16099,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1FB813-4A6A-46DE-946C-2EE8F9B55832}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A2:X21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13583,7 +16119,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="40" t="s">
-        <v>260</v>
+        <v>428</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -13724,7 +16260,7 @@
         <v>261</v>
       </c>
       <c r="B8" s="80" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>82</v>
@@ -13733,7 +16269,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -13742,17 +16278,17 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="70" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P8" s="70"/>
       <c r="Q8" s="70"/>
       <c r="R8" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -13801,7 +16337,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -13810,17 +16346,17 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S10" s="12"/>
       <c r="T10" s="9"/>
@@ -13869,7 +16405,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -13878,7 +16414,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -13886,7 +16422,7 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -13935,28 +16471,28 @@
         <v>20</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -13964,7 +16500,7 @@
         <v>26</v>
       </c>
       <c r="V14" s="14" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
@@ -14007,28 +16543,28 @@
         <v>20</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S16" s="12"/>
       <c r="T16" s="9"/>
@@ -14077,7 +16613,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -14086,7 +16622,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -14094,7 +16630,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="S18" s="12"/>
       <c r="T18" s="9"/>
@@ -14137,24 +16673,24 @@
       </c>
       <c r="B20" s="93"/>
       <c r="C20" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -14162,7 +16698,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
@@ -14206,6 +16742,8 @@
     <mergeCell ref="I18:K19"/>
     <mergeCell ref="L20:N21"/>
     <mergeCell ref="O20:Q21"/>
+    <mergeCell ref="L18:N19"/>
+    <mergeCell ref="O18:Q19"/>
     <mergeCell ref="R20:T21"/>
     <mergeCell ref="U20:U21"/>
     <mergeCell ref="V20:X21"/>
@@ -14214,14 +16752,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:H21"/>
     <mergeCell ref="I20:K21"/>
-    <mergeCell ref="L18:N19"/>
-    <mergeCell ref="O18:Q19"/>
-    <mergeCell ref="V14:X15"/>
-    <mergeCell ref="L12:N13"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="R16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:X17"/>
     <mergeCell ref="R18:T19"/>
     <mergeCell ref="U18:U19"/>
     <mergeCell ref="V18:X19"/>
@@ -14230,11 +16760,17 @@
     <mergeCell ref="O14:Q15"/>
     <mergeCell ref="R14:T15"/>
     <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:X15"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="R16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:X17"/>
     <mergeCell ref="I10:K11"/>
     <mergeCell ref="O12:Q13"/>
     <mergeCell ref="R12:T13"/>
     <mergeCell ref="U12:U13"/>
     <mergeCell ref="V12:X13"/>
+    <mergeCell ref="L12:N13"/>
     <mergeCell ref="L8:N9"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:C17"/>
@@ -14292,22 +16828,22 @@
     <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <conditionalFormatting sqref="U2:U3">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U3">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U12 U14:U21">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U12 U14:U21">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14320,10 +16856,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAA9892-E29B-4592-A1D8-7C0B527FCDC9}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A2:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51:H52"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14338,7 +16877,7 @@
   <sheetData>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="14.25">
       <c r="C2" s="40" t="s">
-        <v>260</v>
+        <v>428</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -14466,16 +17005,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -14484,17 +17023,17 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="8"/>
       <c r="O7" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P7" s="71"/>
       <c r="Q7" s="71"/>
       <c r="R7" s="14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -14537,13 +17076,13 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -14552,17 +17091,17 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="8"/>
       <c r="O9" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P9" s="71"/>
       <c r="Q9" s="71"/>
       <c r="R9" s="14" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -14604,37 +17143,37 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
       <c r="I11" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="70" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P11" s="70"/>
       <c r="Q11" s="70"/>
       <c r="R11" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -14676,37 +17215,37 @@
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
       <c r="I13" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="70" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P13" s="70"/>
       <c r="Q13" s="70"/>
       <c r="R13" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -14748,37 +17287,37 @@
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
       <c r="I15" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="70" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P15" s="70"/>
       <c r="Q15" s="70"/>
       <c r="R15" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -14820,37 +17359,37 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
       <c r="I17" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="8"/>
       <c r="O17" s="99" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P17" s="99"/>
       <c r="Q17" s="99"/>
       <c r="R17" s="14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -14892,37 +17431,37 @@
         <v>7</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
       <c r="I19" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="8"/>
       <c r="O19" s="96" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P19" s="97"/>
       <c r="Q19" s="97"/>
       <c r="R19" s="14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
@@ -14964,37 +17503,37 @@
         <v>8</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
       <c r="I21" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="8"/>
       <c r="O21" s="70" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P21" s="70"/>
       <c r="Q21" s="70"/>
       <c r="R21" s="14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -15036,37 +17575,37 @@
         <v>9</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
       <c r="I23" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="8"/>
       <c r="O23" s="95" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P23" s="95"/>
       <c r="Q23" s="95"/>
       <c r="R23" s="14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -15108,37 +17647,37 @@
         <v>10</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
       <c r="I25" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="8"/>
       <c r="O25" s="79" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P25" s="70"/>
       <c r="Q25" s="70"/>
       <c r="R25" s="14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -15180,37 +17719,37 @@
         <v>11</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="8"/>
       <c r="I27" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="8"/>
       <c r="O27" s="95" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P27" s="95"/>
       <c r="Q27" s="95"/>
       <c r="R27" s="14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -15252,37 +17791,37 @@
         <v>12</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
       <c r="I29" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="8"/>
       <c r="O29" s="95" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P29" s="95"/>
       <c r="Q29" s="95"/>
       <c r="R29" s="14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -15324,16 +17863,16 @@
         <v>13</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -15342,17 +17881,17 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="70" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P31" s="70"/>
       <c r="Q31" s="70"/>
       <c r="R31" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
@@ -15394,16 +17933,16 @@
         <v>14</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -15412,17 +17951,17 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="70" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P33" s="70"/>
       <c r="Q33" s="70"/>
       <c r="R33" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
@@ -15464,16 +18003,16 @@
         <v>15</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -15482,17 +18021,17 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="70" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P35" s="70"/>
       <c r="Q35" s="70"/>
       <c r="R35" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
@@ -15534,16 +18073,16 @@
         <v>16</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -15552,17 +18091,17 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M37" s="7"/>
       <c r="N37" s="8"/>
       <c r="O37" s="99" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P37" s="99"/>
       <c r="Q37" s="99"/>
       <c r="R37" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
@@ -15604,16 +18143,16 @@
         <v>17</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -15622,17 +18161,17 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="8"/>
       <c r="O39" s="96" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P39" s="97"/>
       <c r="Q39" s="97"/>
       <c r="R39" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
@@ -15674,16 +18213,16 @@
         <v>18</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -15692,17 +18231,17 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M41" s="7"/>
       <c r="N41" s="8"/>
       <c r="O41" s="70" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P41" s="70"/>
       <c r="Q41" s="70"/>
       <c r="R41" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
@@ -15744,16 +18283,16 @@
         <v>19</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -15762,17 +18301,17 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="8"/>
       <c r="O43" s="95" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P43" s="95"/>
       <c r="Q43" s="95"/>
       <c r="R43" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
@@ -15814,16 +18353,16 @@
         <v>20</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -15832,17 +18371,17 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M45" s="7"/>
       <c r="N45" s="8"/>
       <c r="O45" s="79" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P45" s="70"/>
       <c r="Q45" s="70"/>
       <c r="R45" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -15884,16 +18423,16 @@
         <v>21</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -15902,17 +18441,17 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="8"/>
       <c r="O47" s="95" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P47" s="95"/>
       <c r="Q47" s="95"/>
       <c r="R47" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -15954,16 +18493,16 @@
         <v>22</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -15972,17 +18511,17 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="8"/>
       <c r="O49" s="95" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P49" s="95"/>
       <c r="Q49" s="95"/>
       <c r="R49" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
@@ -16024,37 +18563,35 @@
         <v>23</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="7" t="s">
-        <v>523</v>
-      </c>
+      <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M51" s="7"/>
       <c r="N51" s="8"/>
       <c r="O51" s="95" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P51" s="95"/>
       <c r="Q51" s="95"/>
-      <c r="R51" s="14" t="s">
-        <v>525</v>
+      <c r="R51" s="7" t="s">
+        <v>504</v>
       </c>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
@@ -16083,7 +18620,7 @@
       <c r="O52" s="95"/>
       <c r="P52" s="95"/>
       <c r="Q52" s="95"/>
-      <c r="R52" s="14"/>
+      <c r="R52" s="7"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
@@ -16365,12 +18902,12 @@
     <mergeCell ref="R47:T48"/>
   </mergeCells>
   <conditionalFormatting sqref="U2:U52">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U52">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16399,4 +18936,924 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFFE193-7099-4F1B-9BA0-EBADBE456730}">
+  <sheetPr>
+    <tabColor rgb="FFF4DBFF"/>
+  </sheetPr>
+  <dimension ref="A1:X24"/>
+  <sheetViews>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="14" max="14" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="14.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="56"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" ht="14.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="57">
+        <v>45134</v>
+      </c>
+      <c r="R2" s="58"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="31"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="32"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+    </row>
+    <row r="7" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A7" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="104" t="s">
+        <v>528</v>
+      </c>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="10"/>
+    </row>
+    <row r="9" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A9" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" s="14"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+    </row>
+    <row r="10" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A10" s="45"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+    </row>
+    <row r="11" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A11" s="102" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="93"/>
+      <c r="C11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V11" s="11"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A12" s="45"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="10"/>
+    </row>
+    <row r="13" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A13" s="102" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" s="93"/>
+      <c r="C13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V13" s="14"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+    </row>
+    <row r="14" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+    </row>
+    <row r="15" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A15" s="102" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="93"/>
+      <c r="C15" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V15" s="14"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+    </row>
+    <row r="16" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A16" s="45"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+    </row>
+    <row r="17" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A17" s="102" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="93"/>
+      <c r="C17" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="S17" s="12"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+    </row>
+    <row r="18" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A18" s="45"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+    </row>
+    <row r="19" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A19" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" s="93"/>
+      <c r="C19" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="S19" s="12"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+    </row>
+    <row r="20" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A20" s="45"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+    </row>
+    <row r="21" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A21" s="102" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="93"/>
+      <c r="C21" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+    </row>
+    <row r="22" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A22" s="45"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+    </row>
+    <row r="23" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A23" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" s="93"/>
+      <c r="C23" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+    </row>
+    <row r="24" spans="1:24" ht="39.75" customHeight="1">
+      <c r="A24" s="45"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="109">
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="I7:K8"/>
+    <mergeCell ref="L7:N8"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="R7:T8"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="R9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:X10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:H12"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="L11:N12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="I9:K10"/>
+    <mergeCell ref="L9:N10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="L17:N18"/>
+    <mergeCell ref="O13:Q14"/>
+    <mergeCell ref="R13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="L15:N16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="I13:K14"/>
+    <mergeCell ref="L13:N14"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:H24"/>
+    <mergeCell ref="I23:K24"/>
+    <mergeCell ref="O19:Q20"/>
+    <mergeCell ref="R19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:X20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:H22"/>
+    <mergeCell ref="I21:K22"/>
+    <mergeCell ref="L21:N22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:H20"/>
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="L19:N20"/>
+    <mergeCell ref="L23:N24"/>
+    <mergeCell ref="O23:Q24"/>
+    <mergeCell ref="R23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:X24"/>
+    <mergeCell ref="B7:B24"/>
+    <mergeCell ref="O21:Q22"/>
+    <mergeCell ref="R21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:X22"/>
+    <mergeCell ref="O17:Q18"/>
+    <mergeCell ref="R17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:X18"/>
+    <mergeCell ref="O15:Q16"/>
+    <mergeCell ref="R15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:X16"/>
+    <mergeCell ref="V13:X14"/>
+    <mergeCell ref="O11:Q12"/>
+    <mergeCell ref="R11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:X12"/>
+    <mergeCell ref="O9:Q10"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:X8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="U1:U2">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U2">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5:U11 U13:U24">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5:U11 U13:U24">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>